--- a/BACKEND/db/db/utils/BRANCHES AND LOCATION.xlsx
+++ b/BACKEND/db/db/utils/BRANCHES AND LOCATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NEXT_DASHBOARD_V2\python_back\db\db\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding projects\maps-app\BACKEND\db\db\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC77855-D339-495D-8923-59F8A2E20622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{471DFD29-F6DD-4618-B6CB-AB37585B2D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{192655A3-8E6D-440B-BFCA-A5C5173BF4BA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18735" windowHeight="8385" activeTab="1" xr2:uid="{192655A3-8E6D-440B-BFCA-A5C5173BF4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="935">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -991,15 +991,9 @@
     <t>46.093333, -64.775</t>
   </si>
   <si>
-    <t>-33.42, 149.57777777778</t>
-  </si>
-  <si>
     <t>44.647777777778, -63.571388888889</t>
   </si>
   <si>
-    <t>-33.8677777777778, 151.21</t>
-  </si>
-  <si>
     <t>43.508333333333, -79.883333333333</t>
   </si>
   <si>
@@ -1024,15 +1018,9 @@
     <t>42.31729, -83.03526</t>
   </si>
   <si>
-    <t>51.507222222222, -0.1275</t>
-  </si>
-  <si>
     <t>43.2167, -79.75</t>
   </si>
   <si>
-    <t>52.208055555556, 0.1225</t>
-  </si>
-  <si>
     <t>45.424722222222, -75.695</t>
   </si>
   <si>
@@ -1054,9 +1042,6 @@
     <t>48.427777777778, -71.059166666667</t>
   </si>
   <si>
-    <t>50.77, 7.1866666666667</t>
-  </si>
-  <si>
     <t>50.5394, -96.1489</t>
   </si>
   <si>
@@ -1864,147 +1849,9 @@
     <t>NAME:  &amp; EXTENSION:</t>
   </si>
   <si>
-    <t>PLACE HOLDER FOR REGINA BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR SASKATOON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR WINNIPEG BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR BRANDON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CALGARY BRANCH</t>
-  </si>
-  <si>
     <t>PLACE HOLDER FOR CALGARY  BRANCH</t>
   </si>
   <si>
-    <t>PLACE HOLDER FOR RED DEER BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR EDMONTON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR EDMONTON (COMPACT) BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR GRANDE PRAIRIE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR FT. MCMURRAY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR FT. ST. JOHN BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR FT. NELSON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR PRINCE GEORGE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR KAMLOOPS BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR WILLIAMS LAKE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR SURREY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CAMPBELL RIVER BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CASTLEGAR BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR SMITHERS BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR VERNON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CRANBROOK BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR NANAIMO BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR TERRACE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR BVP - REGINA (USED) BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR FREDERICTON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR MONCTON BRANCH</t>
-  </si>
-  <si>
-    <t>MCORP</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR BATHURST BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR HALIFAX BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR SYDNEY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR MILTON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR THUNDER BAY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR TIMMINS BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR SUDBURY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR MISSISSAUGA BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR BARRIE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR PETERBOROUGH BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR WINDSOR BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR LONDON BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR STONEY CREEK BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CAMBRIDGE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR OTTAWA BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR DRYDEN BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR HEARST BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR LAVAL BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR BROSSARD BRANCH</t>
-  </si>
-  <si>
     <t>PLACE HOLDER FOR VAL D'OR  BRANCH</t>
   </si>
   <si>
@@ -2032,57 +1879,9 @@
     <t>PLACE HOLDER FOR MONT JOLI BRANCH</t>
   </si>
   <si>
-    <t>PLACE HOLDER FOR MOUNT PEARL BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CORNER BROOK BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR LABRADOR (GOOSE BAY) BRANCH</t>
-  </si>
-  <si>
     <t>PLACE HOLDER FOR STE AGETHE (CLOSED) BRANCH</t>
   </si>
   <si>
-    <t>PLACE HOLDER FOR GRAND FALLS BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR AYR (WATERLOO)  BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR BELLEVILLE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR CARDINAL BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR HAGERSVILLE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR NORTH BAY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR VITTORIA (NORFOLK) BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR WHITBY BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR ESTEVAN BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR LLOYDMINSTER BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR PRINCE ALBERT BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR COLLISION CENTRE BRANCH</t>
-  </si>
-  <si>
-    <t>PLACE HOLDER FOR NISKU BRANCH</t>
-  </si>
-  <si>
     <t>PLACE HOLDER FOR BASSANO BRANCH</t>
   </si>
   <si>
@@ -2455,222 +2254,9 @@
     <t>contact</t>
   </si>
   <si>
-    <t>CONTACT PLACE HOLDER  FOR REGINA BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR SASKATOON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR WINNIPEG BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BRANDON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CALGARY BRANCH</t>
-  </si>
-  <si>
     <t>CONTACT PLACE HOLDER  FOR CALGARY  BRANCH</t>
   </si>
   <si>
-    <t>CONTACT PLACE HOLDER  FOR RED DEER BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR EDMONTON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR EDMONTON (COMPACT) BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR GRANDE PRAIRIE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR FT. MCMURRAY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR FT. ST. JOHN BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR FT. NELSON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR PRINCE GEORGE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR KAMLOOPS BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR WILLIAMS LAKE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR SURREY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CAMPBELL RIVER BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CASTLEGAR BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR SMITHERS BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR VERNON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CRANBROOK BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR NANAIMO BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR TERRACE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BVP - REGINA (USED) BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR FREDERICTON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR MONCTON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BATHURST BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR HALIFAX BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR SYDNEY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR MILTON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR THUNDER BAY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR TIMMINS BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR SUDBURY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR MISSISSAUGA BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BARRIE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR PETERBOROUGH BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR WINDSOR BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR LONDON BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR STONEY CREEK BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CAMBRIDGE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR OTTAWA BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR DRYDEN BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR HEARST BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR LAVAL BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BROSSARD BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR VAL D'OR  BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CHICOUTIMI BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR ST. AUGUSTIN BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR ST. GEORGES BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR TROIS-RIVIERES BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BAIE-COMEAU BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR DEGELIS BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR MONT LAURIER BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR MONT JOLI BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR MOUNT PEARL BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CORNER BROOK BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR LABRADOR (GOOSE BAY) BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR STE AGETHE (CLOSED) BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR GRAND FALLS BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR AYR (WATERLOO)  BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR BELLEVILLE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR CARDINAL BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR HAGERSVILLE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR NORTH BAY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR VITTORIA (NORFOLK) BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR WHITBY BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR ESTEVAN BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR LLOYDMINSTER BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR PRINCE ALBERT BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR COLLISION CENTRE BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR NISKU BRANCH</t>
-  </si>
-  <si>
     <t>CONTACT PLACE HOLDER  FOR BASSANO BRANCH</t>
   </si>
   <si>
@@ -2689,9 +2275,6 @@
     <t>CONTACT PLACE HOLDER  FOR HANNA  BRANCH</t>
   </si>
   <si>
-    <t>CONTACT PLACE HOLDER  FOR HIGH RIVER  BRANCH</t>
-  </si>
-  <si>
     <t>CONTACT PLACE HOLDER  FOR OLDS  BRANCH</t>
   </si>
   <si>
@@ -2716,22 +2299,550 @@
     <t>CONTACT PLACE HOLDER  FOR CRESTON BRANCH</t>
   </si>
   <si>
-    <t>CONTACT PLACE HOLDER  FOR MELFORT  BRANCH</t>
-  </si>
-  <si>
     <t>CONTACT PLACE HOLDER  FOR NIPAWIN  BRANCH</t>
   </si>
   <si>
     <t>CONTACT PLACE HOLDER  FOR PRINCE ALBERT  BRANCH</t>
   </si>
   <si>
-    <t>CONTACT PLACE HOLDER  FOR ROSTHERN  BRANCH</t>
-  </si>
-  <si>
-    <t>CONTACT PLACE HOLDER  FOR SASKATOON  BRANCH</t>
-  </si>
-  <si>
     <t>CONTACT PLACE HOLDER  FOR WATROUS  BRANCH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=ElneiP&amp;nav=MTVfe0QxOTUxQUMyLTE3QjItNEMwNi04NzI1LUU1REZDQUFBRjdGQn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Ke6plb&amp;nav=MTVfezY4MUE0MUZDLTRCRDEtNDI5NS05MTFGLUFFRjBBQ0RDQjkwRH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=FZvrVl&amp;nav=MTVfezA0REIwODc2LTVBNjctNEE5OC1CRDFDLTMzRDVEREJFQzhCRX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=d3V6Qp&amp;nav=MTVfezI0RjQ1OEU2LTE0NTEtNDM1OC04QzdCLTkzQ0U3NzVEOEVCNn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Vm6Zf5&amp;nav=MTVfe0RDN0JBODZELTI2OTgtNDM0Qi05MTg5LTYyRTFEQzBCNjJCOH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=713MCw&amp;nav=MTVfe0U1QkI2MkYzLUU0OTctNEJCQi04N0JGLTM5MjhBNjcwRkEzMH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=MiSWqT&amp;nav=MTVfezlCNDRCNTU1LTA3OEQtNDkzMy1CNDgwLTdEODhFMzM5QURCM30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=9CVbtM&amp;nav=MTVfezQyNzE2MTdCLTk1NzctNDU4Qy1CNDAzLUEwNTc4RkY4RTAzNH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=2ENyCu&amp;nav=MTVfezQxQTI2MTdDLUU4MkUtNDMxRi05MDBCLUUwQ0VERDMzOEI0MX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=aPjYOw&amp;nav=MTVfezUwRDRDNkMyLUYwMEEtNDVCMC1BQURCLTBDOUJERDgxMUIwOX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=jL28Ph&amp;nav=MTVfezlGQkE1MjY5LTNERDktNDNDOS1BODkzLTFDOUI3QUUzRTBEMn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=FN1mzK&amp;nav=MTVfezEzNjU5NTgyLTZBMzQtNEQwNi1BNjc0LTRDOTIzN0E0RjM1RH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=TsISQo&amp;nav=MTVfezY2RkU5NkY4LUE5MzgtNEFDNi05NzYzLUE4MjVGNzUzQjdDQn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=m7tUOz&amp;nav=MTVfezYzQURBMzVCLUExMEItNDc5Mi05RUIxLTkwNzNGRUZGRTQ3N30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=sg2kR3&amp;nav=MTVfe0FDRTQ1M0ZCLUM1MTEtNENDQy04OTkzLTYzMDExNjk1OUMxQn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Gc4el6&amp;nav=MTVfezg3NUEzQURFLUE0MzUtNEU2Ni1CQTcxLTcwQkU3QjMwNDNEOX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Ss5B5Y&amp;nav=MTVfe0YyQUFCNDcyLTU0QkEtNEExRi1BMDQ2LTk2NjdCRDUyN0NGQ30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=bRh94Y&amp;nav=MTVfezdDQjJBODY2LUFCNjUtNDAzOC1BM0ZELTg0ODZCQUQ4MjM4NH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Rf61m1&amp;nav=MTVfezUxQUQ1MUU5LTVDODYtNDU1QS1BQUQ2LTRBQTY4N0U1OENGMX0</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>GRAND PRAIRIE</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=AqVvcw&amp;nav=MTVfezIzRDI5MjUwLUJCNjYtNDdERS04NjcyLThDMDYxNjAzNUNBNX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=VBOUci&amp;nav=MTVfe0MzNzYyMzhFLUE1MDItNDE5NS1COEE5LThBNDZFMTA3NEExQ30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=e9aXpg&amp;nav=MTVfezhCNzE2RUIwLTUyNzMtNDA5My1BNjg0LUU3Rjk5MDQ0NTBFN30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Oa5MIS&amp;nav=MTVfe0FCOEE3ODYzLTlDQkEtNENBOC1BQ0QyLUQ2Mjc4NERCODM3Q30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=xODQ2v&amp;nav=MTVfezI3QjBDOUMxLTRFRkQtNDUwMC1BRjdBLTE4MUM5NjBEMEE5M30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=1qQssV&amp;nav=MTVfezNDNkQzOURELTg2MDgtNDUxNi04M0M4LTIxNzJBNzM3OTkwNn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=uLMGGK&amp;nav=MTVfezNDRDY5MENGLTk0NUUtNDY0Qi04RUJGLTExNDBGOENDMkI5Nn0</t>
+  </si>
+  <si>
+    <t>C01-MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGINA MATERIAL HANDLING BRANCH </t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/01-Regina%20MH.docx?d=w02651a98673a43c0b36e65c0c270160a&amp;csf=1&amp;web=1&amp;e=NveNqw</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=8VcoML&amp;nav=MTVfe0QxQzY3MkNDLUJBQUYtNEVFOC04OTlFLTUwNzBDQUNFMUZEMn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/01-Regina.docx?d=wabe299e6b7ec46bab69a934fe28286c1&amp;csf=1&amp;web=1&amp;e=sosBRu</t>
+  </si>
+  <si>
+    <t>C02-MH</t>
+  </si>
+  <si>
+    <t>SASKATOON MATERIAL HANDLING BRANCH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=hOenZ0&amp;nav=MTVfezVCQTgwOUNDLTE2QjItNENDQy04OEE0LTI0N0IxMTFGM0RFOX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/02-Saskatoon%20MH.docx?d=w35d077c87f364bce83d495b330fbc0e5&amp;csf=1&amp;web=1&amp;e=YGHbAD</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/02-Saskatoon-NEW.docx?d=w1d8ad6a988b440a78d2b9743c1a70c38&amp;csf=1&amp;web=1&amp;e=fOWZ2f</t>
+  </si>
+  <si>
+    <t>C03-BRANDON</t>
+  </si>
+  <si>
+    <t>C03-MH</t>
+  </si>
+  <si>
+    <t>WINNIPEG MATERIAL HANDLING BRANCH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=dyRLxn&amp;nav=MTVfezA3MjhDOTMwLTM3MUUtNEVCNS05MTMwLUZEQTMzQzRGQjdBQX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=dyRLxn&amp;nav=MTVfezA3MjhDOTMwLTM3MUUtNEVCNS05MTMwLUZEQTMzQzRGQjdBQX1</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ppvzI8&amp;nav=MTVfe0UyRDVGNDQzLTY5NTMtNEE4NC04QzZGLTgzOUFBNDg5ODNDNX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/03%20-Winnipeg.docx?d=w3ce2f93c91de47b99b0d3a3cd18d3880&amp;csf=1&amp;web=1&amp;e=S6tdNj</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/03%20-Winnipeg-MH.docx?d=waae2f0aaafd44efca23022567414739d&amp;csf=1&amp;web=1&amp;e=W5Fawu</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/03-Brandon%20Branch.docx?d=wbb00b2f252c742288077e4306b0e631f&amp;csf=1&amp;web=1&amp;e=emXvxT</t>
+  </si>
+  <si>
+    <t>C04-CORP</t>
+  </si>
+  <si>
+    <t>C04-MH</t>
+  </si>
+  <si>
+    <t>CALGARY MATERIAL HANDLING BRANCH</t>
+  </si>
+  <si>
+    <t>CALGARY  CORPORATE BRANCH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/04-Calgary.docx?d=w8e89db0354864bf883e131ae1e14c0c2&amp;csf=1&amp;web=1&amp;e=HEqf8D</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/04-Calgary-MH.docx?d=w414d8cc48bca4bd4a48762d3b799421a&amp;csf=1&amp;web=1&amp;e=qvYlvf</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/04-Calgary.docx?d=w8e89db0354864bf883e131ae1e14c0c2&amp;csf=1&amp;web=1&amp;e=PwNpLf</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=dvaW21&amp;nav=MTVfezhDMUJCMjg4LUJCNzctNDlFNy04ODFGLUZCRDQzMkVCQTIzNX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=Heoa9Y&amp;nav=MTVfezFDMUI4MzMzLTA3MUItNEMwRi04M0Q5LTNDNjYyMTY0RTY4Mn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=d4lz8z&amp;nav=MTVfezg3RjkwMEExLUEyMzYtNDRCNy1CMDIxLUQyMTM5Q0QzNjdFQX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/05-Red%20Deer.docx?d=waf9fc3428e6141458ad6bf587732ad50&amp;csf=1&amp;web=1&amp;e=RIY5F9</t>
+  </si>
+  <si>
+    <t>C05-MH</t>
+  </si>
+  <si>
+    <t>RED DEER MATERIAL HANDLING BRANCH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=d4lz8z&amp;nav=MTVfezg3RjkwMEExLUEyMzYtNDRCNy1CMDIxLUQyMTM5Q0QzNjdFQX1</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/05-Red%20Deer-MH.docx?d=w4ffa2362946a4a87b917fda66edab9db&amp;csf=1&amp;web=1&amp;e=YrHn4W</t>
+  </si>
+  <si>
+    <t>C06-CCE</t>
+  </si>
+  <si>
+    <t>C06-MH</t>
+  </si>
+  <si>
+    <t>EDMONTONMATERIAL HANDLING BRANCH</t>
+  </si>
+  <si>
+    <t>C06-C&amp;F</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/06-Edmonton-C%20%26%20F.docx?d=w111db7e03b9245ac8df0dfd788485b22&amp;csf=1&amp;web=1&amp;e=ZiZ5Tn</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/06-Edmonton-CCE.docx?d=wbade84365a7442dd9b66d3e0de9abe61&amp;csf=1&amp;web=1&amp;e=ai7il6</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/06-Edmonton-MH.docx?d=w36a1210b5c4e43a9a411aec0811d1238&amp;csf=1&amp;web=1&amp;e=vyen0e</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=VbWmur&amp;nav=MTVfe0JBODA0QzVCLTM4MDQtNDg5NC1CQTU4LUI4MjYwRTNBMzFCNn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=NhB3Kj&amp;nav=MTVfezRCRTIzNjE3LTRGQzQtNEY2OS1CQUY1LTY2NTI2NkRENzk2NH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=zyIa4U&amp;nav=MTVfe0JBODA0QzVCLTM4MDQtNDg5NC1CQTU4LUI4MjYwRTNBMzFCNn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=cfhKCW&amp;nav=MTVfezUyNDY1NUQyLUI2MjgtNDhBQy1BOTgzLUQ0MjBBRUJGMTQ4MX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=W1Gsih&amp;nav=MTVfezU5NkM3MTMzLTI0QjYtNEEyOC1CRjA4LUE1OUE0REJDMDFEOX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=8HImjm&amp;nav=MTVfezVFQzBCNDM1LTkwQjUtNDQwRi04OTQ3LTI3QjQzRjQ5MUJFN30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=vW8er2&amp;nav=MTVfezRGODc2RDM1LURBQUMtNEUyMC1CMTI2LTU0RDkxMjZDMzZDQ30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=vWX42m&amp;nav=MTVfezZBNkZGOEZCLTNBNzktNDA3NC1CRDgyLUM2OTcyOENGODM4NX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=o6zjrb&amp;nav=MTVfe0NCQ0Y5OERELUI4MzktNDlEQS04MDU4LUNFOEFCNTI2NDg4Q30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=Voh3RP&amp;nav=MTVfe0Q3RDUxRkJFLTEwQzItNDMxQS1COUIwLUI2MUI0QThGQkZEOH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=LAP2Xz&amp;nav=MTVfe0FBMzRBN0IxLUE3QzItNERGNy1BRTMzLTBDMjNDQkZGQjg1MH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=rkchVL&amp;nav=MTVfezlFMjBBNEJDLTdCMDMtNERCRi04RjczLTU3OEQ2QjUxNDRBOH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=qAfMcO&amp;nav=MTVfe0RGRDYxQTNBLTE5QjgtNDE5My05MTAzLTEzNjhCQzNGQUI0OX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=4K7Evv&amp;nav=MTVfe0IyQTUwMjVELUNENzctNEVCQy05QzVDLUJFOTA0NjlFRTEzNX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=YHXSbw&amp;nav=MTVfe0Y3QkRBNUE1LUMxOUQtNEZGQi04RUYwLURGQkVBRTkzRDBGMX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=t4VCjg&amp;nav=MTVfezU0OUZGRjNELTVCMDMtNDAzNS04NzYzLUY2RjNFNzU1OUVGMn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=oqEvZg&amp;nav=MTVfezI3RDQxNzBGLTNEMjktNDc4OS05QUVDLTM5MzJBNjg5MEM2RH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=yosc37&amp;nav=MTVfezUzMEZBMENCLUI1NTQtNDI2MS1BRTkzLUY1MEMxRTFBMTJGN30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=Dv7AQK&amp;nav=MTVfezhCRTJEMjJBLURFMkYtNDEwRi04MEQwLUI3NkEyMUFCOTI0Qn0</t>
+  </si>
+  <si>
+    <t>C40-CORP</t>
+  </si>
+  <si>
+    <t>MONCTON CORPRATE BRANCH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=cGcfcJ&amp;nav=MTVfe0IxMkE5RThDLUFDNTQtNEI1NC1CNTgyLTMxQUJBQTFEMURBMX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=HB629H&amp;nav=MTVfezk1MjA4NEJDLTRGNDYtNDA5Mi04QzBGLTMxOUQ0OUIzNUVBNn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=pPgwjS&amp;nav=MTVfezE3NjRENjkwLTI3QTYtNDRFNC1BRkIwLUVFMjM5NzY1NTlGOX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ODQFKq&amp;nav=MTVfe0JEMzk1MEE3LTBCQzAtNDAwQy04NEU0LUJFRkYxMEMyMTU3NH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=jXgzhA&amp;nav=MTVfezI5MzQ1RkI1LUNDQzUtNDIwOC1CRjVFLTVBRDVEQTA0OTI4Qn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=hKHpnJ&amp;nav=MTVfe0FCMTdFQzk3LTEwMEMtNEQ3MC1CMEYyLTBFRDcwM0QzRUI4NX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=uLnySS&amp;nav=MTVfezVGQkQyMDdELUEwQTItNEM3RS1CM0I0LTU0MkEzODIwNTA5Qn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=chAqXK&amp;nav=MTVfezc4MEE0OTY2LTBBRTQtNDNFRC04REYzLTZCNEM0NEEyQjU3Q30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=5cgibd&amp;nav=MTVfezlGNkUxQkNBLThGMDktNEU4RS1BQUI4LUYxMDRDNDhGQ0U0OX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=f1lCMW&amp;nav=MTVfe0U4NEFBOTg5LUY0QTUtNDU3RC05RjY2LTAwNzFBRTZDREI2RH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=32uJn2&amp;nav=MTVfezA1OUY5QzRDLTQ2RDEtNDM1NC1CNzhFLUE5N0RFNjFFOTJFOH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=CI34Vd&amp;nav=MTVfe0Q0RkM3QTJGLTc2RTItNDg1Qy1COUVGLUI4Qjk4NDU5QUE2OH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=4FONl8&amp;nav=MTVfe0Y5NzRCQjQ3LUNDN0QtNDc5My04NjA4LTE0RDAzRjYwQkFDMH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=RARrGD&amp;nav=MTVfezlCNDE5NzBCLTk5MkMtNDY2MS1CQTEwLTZEMkE1RTUxMzI1MX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ycZ8BX&amp;nav=MTVfezAwOTU5NTZFLTc1NjAtNEU5Mi05MUNFLTU2N0JDMkUxQ0Y3Qn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=4tNvaY&amp;nav=MTVfezY0QjA4MUJDLTZERTAtNDdFNC1BRTkzLUVCQ0I3NTBERjZDRn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=qJ2Avo&amp;nav=MTVfe0NBQzc4NDIyLUNBQ0QtNDZGNy05QTY4LTZDMUNCNDBGQjU1OX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=v5Jhdr&amp;nav=MTVfe0VBMDkwQjI5LTZGQTUtNEYzRi05QTNELTk2RjQ4QzJEQTkxNn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=BhHUr7&amp;nav=MTVfezFBREJBQjU5LUMzRDUtNDE2OC1BMDM1LTJFN0YxODJDMzU4MX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ss94VZ&amp;nav=MTVfe0Q5N0FEMUI2LURERjUtNEM4Qy1BMzU0LThCQzAyMjIxRjk2OH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=TwMnjU&amp;nav=MTVfe0FEMDVDQ0EzLUFEREYtNDdEMS1BQUMxLTM3QzAxOEFBNzI0Q30</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=KOelQg&amp;nav=MTVfezc1NENDRjQ3LUE0RTktNDM2MS1CM0Y1LTU4QkIwRjVDRjk0Nn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=nqVRbh&amp;nav=MTVfe0ZEODM3MTczLUZEMTItNEUzMi1CRkQ5LUUxOUZENENBOEVBNX0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ih0iCI&amp;nav=MTVfezI0NUE5OTg0LUQyMDMtNDZBRi04NkRELTQ2QjgwNEQxNkNEMn0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=3dbJiG&amp;nav=MTVfe0RGOTMwMUJELUQ0MzktNDU1NC05MEIwLUVGRDc5MjUyOTVDNH0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/07-Grande%20Prairie%20(Clairmont).docx?d=we3f1ac23213e4aee82aab1aa78969bfe&amp;csf=1&amp;web=1&amp;e=RDHsKm</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/08-Fort%20McMurray.docx?d=w8244e7bcf3c24269aa4f42db9efb7a80&amp;csf=1&amp;web=1&amp;e=bd0KX1</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/09-Fort%20St%20%20John.docx?d=w3d1c9175ff994137975b913ef2f1e9ce&amp;csf=1&amp;web=1&amp;e=1BAyMC</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/11-Prince%20George.docx?d=wa651973fc12648ed8df3122c69c1990f&amp;csf=1&amp;web=1&amp;e=eafDcB</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/12-Kamloops.docx?d=wf1249337c6354dd2a67954d80df62f4c&amp;csf=1&amp;web=1&amp;e=mZs0Xu</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/13-Williams%20Lake.docx?d=w449240d860db42af987814f797e3cc9c&amp;csf=1&amp;web=1&amp;e=eprDc0</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/14-Surrey.docx?d=w27e06910fef54125b65669d8dc0aab45&amp;csf=1&amp;web=1&amp;e=n1iGe6</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/15-Campbell%20River.docx?d=wa82c5c3eec614976bb89bd6d26f83db7&amp;csf=1&amp;web=1&amp;e=uv1csT</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/16-Castlegar.docx?d=w11ffc9ed433e49ea9be7f870ecb65d8a&amp;csf=1&amp;web=1&amp;e=p89o4o</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/17-Smithers.docx?d=wc741315877454cff84cca30355128e78&amp;csf=1&amp;web=1&amp;e=Z4cj13</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/18-Vernon.docx?d=wb6f31f56f5374c3fa3c4ff9b9c259dee&amp;csf=1&amp;web=1&amp;e=IuhMgS</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/19-Cranbrook.docx?d=wa418bf1fe61349b1963e9a4d1df891e4&amp;csf=1&amp;web=1&amp;e=V0mOXh</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/20-Nanaimo.docx?d=w09b68f764600442f8c821b850dc339eb&amp;csf=1&amp;web=1&amp;e=TXfgVN</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/22-Terrace.docx?d=w2a098eb5afe94f579cf0da9d4694b830&amp;csf=1&amp;web=1&amp;e=vFYm3i</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/23-Value%20Parts.docx?d=wb8f1a70572b44a20a4e3eebd8c4382eb&amp;csf=1&amp;web=1&amp;e=nySJMa</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/39-Fredericton.docx?d=wd5aa05fdbdc4445fad3f8f0bcb3f0407&amp;csf=1&amp;web=1&amp;e=4k5bC9</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/40-Moncton.docx?d=w46182e14bf6c46f483b10a5785415dc2&amp;csf=1&amp;web=1&amp;e=Vzf15a</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/41-Bathurst.docx?d=we0c3726b910a450ab6f4a0b381b59f11&amp;csf=1&amp;web=1&amp;e=Qd6FDS</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/24-Milton.docx?d=w2e4a4d820b3b4721b949cc09daa11a9f&amp;csf=1&amp;web=1&amp;e=WOLoaA</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/36-Nisku.docx?d=w3ef25cb77f6142f8b3ead72722a2820d&amp;csf=1&amp;web=1&amp;e=5WHBbh</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/42-Halifax%20(Bedford).docx?d=wb1a88fd2a512437f816c8e4a9a9e9374&amp;csf=1&amp;web=1&amp;e=32ieqt</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/43-Sydney.docx?d=w692ab47e66cc4a959740da01256fe29d&amp;csf=1&amp;web=1&amp;e=ZS69bO</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/50-Thunder%20Bay.docx?d=wc898544e54a94acdb1a14d25223f6eb6&amp;csf=1&amp;web=1&amp;e=l8gKJz</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/51-Timmins.docx?d=wd19698d5ba0844328751ea406de0959f&amp;csf=1&amp;web=1&amp;e=1IgtYG</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/52-Sudbury%20(Lively).docx?d=we76822b3aaf541cc8a7be7b94707cfe9&amp;csf=1&amp;web=1&amp;e=Ea2Tub</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/53-Mississauga.docx?d=w254ef8cfdeed48dbaa172a9c9fd04702&amp;csf=1&amp;web=1&amp;e=1JNaPA</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/54-Barrie.docx%20(Oro-Medonte%20or%20Shanty%20Bay).docx?d=w4c9704dad8954b89b620e137b6db10ed&amp;csf=1&amp;web=1&amp;e=RlYmyt</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/55-Peterborough.docx?d=w53ab220593b1461a99d6a85e4d6ecc39&amp;csf=1&amp;web=1&amp;e=LbwJjZ</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/56-Windsor.docx?d=w14f8b913de824f418834dd76061a4181&amp;csf=1&amp;web=1&amp;e=3nSuyo</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/57-London.docx?d=wce0ad012e5a442dfb83229be19814239&amp;csf=1&amp;web=1&amp;e=oyoa8O</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/58-Stoney%20Creek.docx?d=wcc93c903f3dc4ed3955da6b4dba73138&amp;csf=1&amp;web=1&amp;e=mEy2wQ</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/59-Cambridge.docx?d=w9a2d8d00128843719fd22c94bf8ba398&amp;csf=1&amp;web=1&amp;e=SvLsUe</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/60-Ottawa%20(Carp).docx?d=w74b22c0c673947cd829893d270121994&amp;csf=1&amp;web=1&amp;e=KaAwWC</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/61-Laval.docx?d=w8a852b43398f40d2acf619cb6968add8&amp;csf=1&amp;web=1&amp;e=YQ4bg1</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/62-Brossard.docx?d=w8f58e9a4f47e46028675f1df79a6f859&amp;csf=1&amp;web=1&amp;e=489efD</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/63-Amos-DRAFT.docx?d=wbc6879b3ed774ce280e8fea29641b642&amp;csf=1&amp;web=1&amp;e=eY5j3h</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/64-Chicoutimi.xlsx?d=w2b3e854480224ca7994c0dd958671ad6&amp;csf=1&amp;web=1&amp;e=rJmRfH</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/65-%20St.%20Augustin.xlsx?d=wcd1450fe66874f5683dd24e849c76ed8&amp;csf=1&amp;web=1&amp;e=wvN4RB</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/66-St%20Georges-DRAFT.docx?d=wd83f964757e54ff985a5051cfd4bfa53&amp;csf=1&amp;web=1&amp;e=FxNMip</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/67%20-%20Trois-Rivi%C3%A8res.xlsx?d=we0975bb6116f47488a3379c3241afde1&amp;csf=1&amp;web=1&amp;e=oCqAiZ</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/68-Baie-Comeau-DRAFT.docx?d=wecade6e688124bbe8a1a7c07b5114297&amp;csf=1&amp;web=1&amp;e=e4s6Tf</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/69-Edmundston.docx?d=wc000ecbd56be4c39a06bec0f5cab7ed6&amp;csf=1&amp;web=1&amp;e=rn1IRF</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/70-Mount%20Pearl.docx?d=w38dd502920b547b69518e9417d5bb8eb&amp;csf=1&amp;web=1&amp;e=HpznZ4</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/71-Corner%20Brook.docx?d=w0b5cc7b3459e4c99a2b455391513c4eb&amp;csf=1&amp;web=1&amp;e=aBIQsr</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/72-Labrador%20(Goose%20Bay).docx?d=w72bff126f776426bba6e7f3f7609e3a8&amp;csf=1&amp;web=1&amp;e=iHSGix</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/73-Dryden.docx?d=wf7e59a7b48394c9bb052fa14b2f1b4e2&amp;csf=1&amp;web=1&amp;e=EVhJ67</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/74-Hearst.docx?d=w3761fdb7eef34986a413baab2b2932b9&amp;csf=1&amp;web=1&amp;e=6qe8Km</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/75-St%20Agathe-DRAFT.docx?d=wdc809d80247b42faa917fef00934116c&amp;csf=1&amp;web=1&amp;e=H2fb1Z</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/76-Mont%20Laurier-DRAFT.docx?d=w1b1e8f583952498d9486068185ff663a&amp;csf=1&amp;web=1&amp;e=LabA2x</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/77-Mont%20Joli-DRAFT.docx?d=w0957d6795abc422798c547c9f0195529&amp;csf=1&amp;web=1&amp;e=UzYAFL</t>
+  </si>
+  <si>
+    <t>https://brandtgroupca.sharepoint.com/:w:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/78-Grand%20Falls-Windsor.docx?d=we184e53ef974474e84257e530a060ae4&amp;csf=1&amp;web=1&amp;e=QgUcLS</t>
+  </si>
+  <si>
+    <t>50.448864240516066, -104.49393626234846</t>
+  </si>
+  <si>
+    <t>52.18897158811793, -106.68812779753605</t>
+  </si>
+  <si>
+    <t>49.808529416912926, -97.24360309001187</t>
+  </si>
+  <si>
+    <t>51.14614809011545, -114.00224363531844</t>
+  </si>
+  <si>
+    <t>52.30588263948317, -113.8642359911559</t>
+  </si>
+  <si>
+    <t>53.5531263042856, -113.62633978484574</t>
+  </si>
+  <si>
+    <t>53.33220857017582, -113.54465480177677</t>
+  </si>
+  <si>
+    <t>47.57227980202315, -65.57644273185515</t>
+  </si>
+  <si>
+    <t>46.127937419418615, -60.2551600578506</t>
+  </si>
+  <si>
+    <t>42.92800943079111, -81.21060314445779</t>
+  </si>
+  <si>
+    <t>43.41810119336565, -80.3362178409716</t>
+  </si>
+  <si>
+    <t>46.7627633262026, -71.45308525929808</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +3074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3027,6 +3138,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3416,7 +3529,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
@@ -3437,12 +3550,12 @@
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -3461,10 +3574,10 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3">
@@ -3485,12 +3598,12 @@
       <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="25" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -3507,10 +3620,10 @@
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="3">
@@ -3531,12 +3644,12 @@
       <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
@@ -3555,10 +3668,10 @@
       <c r="G7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -3577,10 +3690,10 @@
       <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -3595,10 +3708,10 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -3617,10 +3730,10 @@
       <c r="G10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -3639,10 +3752,10 @@
       <c r="G11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3">
         <v>8</v>
       </c>
@@ -3661,10 +3774,10 @@
       <c r="G12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="3">
@@ -3685,12 +3798,12 @@
       <c r="G13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="25" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -3709,10 +3822,10 @@
       <c r="G14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="3">
         <v>11</v>
       </c>
@@ -3731,10 +3844,10 @@
       <c r="G15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3">
         <v>12</v>
       </c>
@@ -3753,10 +3866,10 @@
       <c r="G16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="3">
         <v>13</v>
       </c>
@@ -3775,10 +3888,10 @@
       <c r="G17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -3797,10 +3910,10 @@
       <c r="G18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="3">
         <v>15</v>
       </c>
@@ -3819,10 +3932,10 @@
       <c r="G19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="3">
         <v>16</v>
       </c>
@@ -3841,10 +3954,10 @@
       <c r="G20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="3">
         <v>17</v>
       </c>
@@ -3863,10 +3976,10 @@
       <c r="G21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3">
         <v>18</v>
       </c>
@@ -3885,10 +3998,10 @@
       <c r="G22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="3">
         <v>19</v>
       </c>
@@ -3907,10 +4020,10 @@
       <c r="G23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="3">
         <v>20</v>
       </c>
@@ -3929,10 +4042,10 @@
       <c r="G24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -3951,10 +4064,10 @@
       <c r="G25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="10">
@@ -3969,12 +4082,12 @@
       <c r="G26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="25" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="3">
         <v>39</v>
       </c>
@@ -3993,10 +4106,10 @@
       <c r="G27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="3">
         <v>40</v>
       </c>
@@ -4015,10 +4128,10 @@
       <c r="G28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="24"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -4037,10 +4150,10 @@
       <c r="G29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="24"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="3">
         <v>41</v>
       </c>
@@ -4059,10 +4172,10 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="3">
         <v>42</v>
       </c>
@@ -4081,10 +4194,10 @@
       <c r="G31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="3">
         <v>43</v>
       </c>
@@ -4103,10 +4216,10 @@
       <c r="G32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
       <c r="B33" s="13">
@@ -4127,10 +4240,10 @@
       <c r="G33" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="3">
         <v>50</v>
       </c>
@@ -4149,12 +4262,12 @@
       <c r="G34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="25" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="3">
         <v>51</v>
       </c>
@@ -4173,10 +4286,10 @@
       <c r="G35" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="3">
         <v>52</v>
       </c>
@@ -4195,10 +4308,10 @@
       <c r="G36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="24"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="3">
         <v>53</v>
       </c>
@@ -4217,10 +4330,10 @@
       <c r="G37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H37" s="24"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="3">
         <v>54</v>
       </c>
@@ -4239,10 +4352,10 @@
       <c r="G38" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H38" s="24"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="3">
         <v>55</v>
       </c>
@@ -4261,10 +4374,10 @@
       <c r="G39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="24"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="3">
         <v>56</v>
       </c>
@@ -4283,10 +4396,10 @@
       <c r="G40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="24"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="3">
         <v>57</v>
       </c>
@@ -4305,10 +4418,10 @@
       <c r="G41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H41" s="24"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="3">
         <v>58</v>
       </c>
@@ -4327,10 +4440,10 @@
       <c r="G42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="3">
         <v>59</v>
       </c>
@@ -4349,10 +4462,10 @@
       <c r="G43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="24"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="3">
         <v>60</v>
       </c>
@@ -4371,10 +4484,10 @@
       <c r="G44" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="24"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="3">
         <v>73</v>
       </c>
@@ -4393,10 +4506,10 @@
       <c r="G45" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="24"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="3">
         <v>74</v>
       </c>
@@ -4415,10 +4528,10 @@
       <c r="G46" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H46" s="25"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="28" t="s">
         <v>225</v>
       </c>
       <c r="B47" s="3">
@@ -4439,12 +4552,12 @@
       <c r="G47" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="25" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="3">
         <v>62</v>
       </c>
@@ -4463,10 +4576,10 @@
       <c r="G48" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="24"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="3">
         <v>63</v>
       </c>
@@ -4485,10 +4598,10 @@
       <c r="G49" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H49" s="24"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="3">
         <v>64</v>
       </c>
@@ -4507,10 +4620,10 @@
       <c r="G50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="24"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="3">
         <v>65</v>
       </c>
@@ -4529,10 +4642,10 @@
       <c r="G51" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="24"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="3">
         <v>66</v>
       </c>
@@ -4551,10 +4664,10 @@
       <c r="G52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H52" s="24"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="3">
         <v>67</v>
       </c>
@@ -4573,10 +4686,10 @@
       <c r="G53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H53" s="24"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="3">
         <v>68</v>
       </c>
@@ -4595,10 +4708,10 @@
       <c r="G54" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H54" s="24"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="3">
         <v>69</v>
       </c>
@@ -4617,10 +4730,10 @@
       <c r="G55" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H55" s="24"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="3">
         <v>76</v>
       </c>
@@ -4639,10 +4752,10 @@
       <c r="G56" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H56" s="24"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="3">
         <v>77</v>
       </c>
@@ -4661,10 +4774,10 @@
       <c r="G57" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H57" s="25"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="28" t="s">
         <v>270</v>
       </c>
       <c r="B58" s="3">
@@ -4685,12 +4798,12 @@
       <c r="G58" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="25" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="3">
         <v>71</v>
       </c>
@@ -4709,10 +4822,10 @@
       <c r="G59" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H59" s="24"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="3">
         <v>72</v>
       </c>
@@ -4731,10 +4844,10 @@
       <c r="G60" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H60" s="24"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="17">
         <v>75</v>
       </c>
@@ -4753,10 +4866,10 @@
       <c r="G61" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H61" s="24"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="3">
         <v>78</v>
       </c>
@@ -4775,7 +4888,7 @@
       <c r="G62" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H62" s="25"/>
+      <c r="H62" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4803,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433673A2-E90D-4DAE-8497-A68936D4688C}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,34 +4931,34 @@
     <col min="5" max="5" width="49.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
     <col min="9" max="9" width="178.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="C1" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
       <c r="D1" t="s">
-        <v>801</v>
+        <v>734</v>
       </c>
       <c r="E1" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="F1" t="s">
-        <v>804</v>
+        <v>737</v>
       </c>
       <c r="G1" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
       <c r="H1" t="s">
-        <v>803</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4853,19 +4966,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>608</v>
+        <v>787</v>
       </c>
       <c r="F2" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="G2" t="s">
         <v>280</v>
@@ -4879,25 +4992,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>784</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>785</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>609</v>
+        <v>787</v>
       </c>
       <c r="F3" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="G3" t="s">
         <v>280</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4905,25 +5018,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,25 +5044,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>789</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>790</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>611</v>
+        <v>791</v>
       </c>
       <c r="F5" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,25 +5070,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>612</v>
+        <v>797</v>
       </c>
       <c r="F6" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="G6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,25 +5096,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>795</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>796</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>613</v>
+        <v>798</v>
       </c>
       <c r="F7" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5009,25 +5122,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>794</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>614</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>799</v>
       </c>
       <c r="F8" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5035,25 +5148,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>615</v>
+        <v>810</v>
       </c>
       <c r="F9" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G9" t="s">
         <v>282</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5061,25 +5174,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>804</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>616</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>811</v>
       </c>
       <c r="F10" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G10" t="s">
         <v>282</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5087,25 +5200,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>803</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>806</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>617</v>
+        <v>810</v>
       </c>
       <c r="F11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G11" t="s">
         <v>282</v>
       </c>
       <c r="H11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5113,25 +5226,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>618</v>
+        <v>812</v>
       </c>
       <c r="F12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G12" t="s">
         <v>282</v>
       </c>
       <c r="H12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5139,25 +5252,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>814</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>815</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>619</v>
+        <v>816</v>
       </c>
       <c r="F13" t="s">
-        <v>816</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>283</v>
+        <v>817</v>
+      </c>
+      <c r="G13" t="s">
+        <v>282</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,25 +5278,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>518</v>
+        <v>821</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>620</v>
+        <v>825</v>
       </c>
       <c r="F14" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="G14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5191,25 +5304,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>818</v>
       </c>
       <c r="C15" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>621</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>826</v>
       </c>
       <c r="F15" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="G15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,25 +5330,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>819</v>
       </c>
       <c r="C16" t="s">
-        <v>523</v>
+        <v>820</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>622</v>
+        <v>827</v>
       </c>
       <c r="F16" t="s">
-        <v>819</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>285</v>
+        <v>824</v>
+      </c>
+      <c r="G16" t="s">
+        <v>282</v>
       </c>
       <c r="H16" t="s">
-        <v>305</v>
+        <v>928</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5243,25 +5356,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>623</v>
-      </c>
-      <c r="F17" t="s">
-        <v>820</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>285</v>
+        <v>828</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="G17" t="s">
+        <v>282</v>
       </c>
       <c r="H17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5269,25 +5382,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>624</v>
-      </c>
-      <c r="F18" t="s">
-        <v>821</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>285</v>
+        <v>57</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="G18" t="s">
+        <v>282</v>
       </c>
       <c r="H18" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5295,25 +5408,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="C19" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>625</v>
-      </c>
-      <c r="F19" t="s">
-        <v>822</v>
+        <v>63</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>873</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5321,25 +5434,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>626</v>
-      </c>
-      <c r="F20" t="s">
-        <v>823</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>285</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="G20" t="s">
+        <v>284</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,25 +5460,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="C21" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>627</v>
-      </c>
-      <c r="F21" t="s">
-        <v>824</v>
-      </c>
-      <c r="G21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="G21" t="s">
         <v>285</v>
       </c>
       <c r="H21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5373,25 +5486,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>628</v>
-      </c>
-      <c r="F22" t="s">
-        <v>825</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>875</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>285</v>
       </c>
       <c r="H22" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5399,25 +5512,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>629</v>
-      </c>
-      <c r="F23" t="s">
-        <v>826</v>
+        <v>71</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>876</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>285</v>
       </c>
       <c r="H23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5425,25 +5538,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>630</v>
-      </c>
-      <c r="F24" t="s">
-        <v>827</v>
+        <v>73</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>877</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5451,25 +5564,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C25" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>631</v>
-      </c>
-      <c r="F25" t="s">
-        <v>828</v>
+        <v>75</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>878</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5477,25 +5590,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C26" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>632</v>
-      </c>
-      <c r="F26" t="s">
-        <v>829</v>
-      </c>
-      <c r="G26" t="s">
-        <v>280</v>
+        <v>77</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="H26" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5503,25 +5616,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C27" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" t="s">
-        <v>633</v>
-      </c>
-      <c r="F27" t="s">
-        <v>830</v>
-      </c>
-      <c r="G27" t="s">
-        <v>287</v>
+        <v>79</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="H27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5529,25 +5642,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C28" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>634</v>
-      </c>
-      <c r="F28" t="s">
-        <v>831</v>
-      </c>
-      <c r="G28" t="s">
-        <v>287</v>
+        <v>81</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="H28" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5555,25 +5668,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>635</v>
+        <v>531</v>
       </c>
       <c r="C29" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>634</v>
-      </c>
-      <c r="F29" t="s">
-        <v>831</v>
-      </c>
-      <c r="G29" t="s">
-        <v>287</v>
+        <v>83</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5581,25 +5694,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C30" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" t="s">
-        <v>636</v>
-      </c>
-      <c r="F30" t="s">
-        <v>832</v>
-      </c>
-      <c r="G30" t="s">
-        <v>287</v>
+        <v>85</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="H30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,25 +5720,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C31" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>637</v>
-      </c>
-      <c r="F31" t="s">
-        <v>833</v>
-      </c>
-      <c r="G31" t="s">
-        <v>288</v>
+        <v>87</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="H31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5633,25 +5746,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="C32" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>638</v>
-      </c>
-      <c r="F32" t="s">
-        <v>834</v>
+        <v>90</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>885</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H32" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,25 +5772,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>554</v>
+        <v>890</v>
       </c>
       <c r="C33" t="s">
-        <v>555</v>
+        <v>397</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>639</v>
-      </c>
-      <c r="F33" t="s">
-        <v>835</v>
+        <v>376</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>891</v>
       </c>
       <c r="G33" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H33" t="s">
-        <v>320</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,25 +5798,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C34" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" t="s">
-        <v>640</v>
-      </c>
-      <c r="F34" t="s">
-        <v>836</v>
+        <v>286</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>886</v>
       </c>
       <c r="G34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H34" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5711,25 +5824,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="C35" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" t="s">
-        <v>641</v>
-      </c>
-      <c r="F35" t="s">
-        <v>837</v>
+        <v>100</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>887</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H35" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5737,25 +5850,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>844</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>845</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>642</v>
-      </c>
-      <c r="F36" t="s">
-        <v>838</v>
+        <v>100</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>887</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H36" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,25 +5876,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>544</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" t="s">
-        <v>643</v>
-      </c>
-      <c r="F37" t="s">
-        <v>839</v>
+        <v>109</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>888</v>
       </c>
       <c r="G37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>324</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5789,25 +5902,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" t="s">
-        <v>644</v>
-      </c>
-      <c r="F38" t="s">
-        <v>840</v>
+        <v>114</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>892</v>
       </c>
       <c r="G38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5815,25 +5928,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="C39" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" t="s">
-        <v>645</v>
-      </c>
-      <c r="F39" t="s">
-        <v>841</v>
+        <v>119</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>893</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H39" t="s">
-        <v>326</v>
+        <v>931</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5841,25 +5954,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>646</v>
-      </c>
-      <c r="F40" t="s">
-        <v>842</v>
+        <v>847</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>889</v>
       </c>
       <c r="G40" t="s">
         <v>290</v>
       </c>
       <c r="H40" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5867,25 +5980,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C41" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>647</v>
-      </c>
-      <c r="F41" t="s">
-        <v>843</v>
+        <v>852</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>894</v>
       </c>
       <c r="G41" t="s">
         <v>290</v>
       </c>
       <c r="H41" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5893,25 +6006,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>554</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" t="s">
-        <v>648</v>
-      </c>
-      <c r="F42" t="s">
-        <v>844</v>
+        <v>129</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>895</v>
       </c>
       <c r="G42" t="s">
         <v>290</v>
       </c>
       <c r="H42" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5919,25 +6032,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>649</v>
-      </c>
-      <c r="F43" t="s">
-        <v>845</v>
+        <v>134</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>896</v>
       </c>
       <c r="G43" t="s">
         <v>290</v>
       </c>
       <c r="H43" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5945,25 +6058,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" t="s">
-        <v>650</v>
-      </c>
-      <c r="F44" t="s">
-        <v>846</v>
+        <v>138</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>897</v>
       </c>
       <c r="G44" t="s">
         <v>290</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5971,25 +6084,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C45" t="s">
-        <v>572</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
-      </c>
-      <c r="E45" t="s">
-        <v>651</v>
-      </c>
-      <c r="F45" t="s">
-        <v>847</v>
+        <v>143</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>898</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H45" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5997,25 +6110,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C46" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" t="s">
-        <v>652</v>
-      </c>
-      <c r="F46" t="s">
-        <v>848</v>
+        <v>148</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="G46" t="s">
         <v>290</v>
       </c>
       <c r="H46" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -6023,25 +6136,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C47" t="s">
-        <v>576</v>
+        <v>390</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>653</v>
-      </c>
-      <c r="F47" t="s">
-        <v>849</v>
+        <v>858</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>900</v>
       </c>
       <c r="G47" t="s">
         <v>290</v>
       </c>
       <c r="H47" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6049,25 +6162,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C48" t="s">
-        <v>578</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" t="s">
-        <v>654</v>
-      </c>
-      <c r="F48" t="s">
-        <v>850</v>
+        <v>158</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>901</v>
       </c>
       <c r="G48" t="s">
         <v>290</v>
       </c>
       <c r="H48" t="s">
-        <v>335</v>
+        <v>932</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -6075,25 +6188,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="C49" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
-      </c>
-      <c r="E49" t="s">
-        <v>655</v>
-      </c>
-      <c r="F49" t="s">
-        <v>851</v>
+        <v>163</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>902</v>
       </c>
       <c r="G49" t="s">
         <v>290</v>
       </c>
       <c r="H49" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6101,25 +6214,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C50" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" t="s">
-        <v>656</v>
-      </c>
-      <c r="F50" t="s">
-        <v>852</v>
+        <v>168</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>903</v>
       </c>
       <c r="G50" t="s">
         <v>290</v>
       </c>
       <c r="H50" t="s">
-        <v>337</v>
+        <v>933</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -6127,25 +6240,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="C51" t="s">
-        <v>584</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" t="s">
-        <v>657</v>
-      </c>
-      <c r="F51" t="s">
-        <v>853</v>
+        <v>173</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>904</v>
       </c>
       <c r="G51" t="s">
         <v>290</v>
       </c>
       <c r="H51" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6153,25 +6266,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="C52" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="E52" t="s">
-        <v>658</v>
-      </c>
-      <c r="F52" t="s">
-        <v>854</v>
+        <v>863</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>917</v>
       </c>
       <c r="G52" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H52" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6179,25 +6292,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="C53" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="D53" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" t="s">
-        <v>659</v>
-      </c>
-      <c r="F53" t="s">
-        <v>855</v>
+        <v>246</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>918</v>
       </c>
       <c r="G53" t="s">
         <v>290</v>
       </c>
       <c r="H53" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,25 +6318,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" t="s">
-        <v>660</v>
-      </c>
-      <c r="F54" t="s">
-        <v>856</v>
+        <v>180</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>905</v>
       </c>
       <c r="G54" t="s">
         <v>290</v>
       </c>
       <c r="H54" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6231,25 +6344,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C55" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" t="s">
-        <v>661</v>
-      </c>
-      <c r="F55" t="s">
-        <v>857</v>
+        <v>185</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>906</v>
       </c>
       <c r="G55" t="s">
         <v>290</v>
       </c>
       <c r="H55" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6257,25 +6370,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="C56" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="E56" t="s">
-        <v>662</v>
-      </c>
-      <c r="F56" t="s">
-        <v>858</v>
+        <v>604</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>907</v>
       </c>
       <c r="G56" t="s">
         <v>290</v>
       </c>
       <c r="H56" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -6283,25 +6396,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C57" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>663</v>
-      </c>
-      <c r="F57" t="s">
-        <v>859</v>
+        <v>605</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>908</v>
       </c>
       <c r="G57" t="s">
         <v>290</v>
       </c>
       <c r="H57" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -6309,25 +6422,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="C58" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
-        <v>664</v>
-      </c>
-      <c r="F58" t="s">
-        <v>860</v>
+        <v>606</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>909</v>
       </c>
       <c r="G58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H58" t="s">
-        <v>345</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -6335,25 +6448,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C59" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>665</v>
-      </c>
-      <c r="F59" t="s">
-        <v>861</v>
+        <v>607</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>910</v>
       </c>
       <c r="G59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H59" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6361,25 +6474,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="C60" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>666</v>
-      </c>
-      <c r="F60" t="s">
-        <v>862</v>
+        <v>608</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>911</v>
       </c>
       <c r="G60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H60" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6387,25 +6500,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="C61" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>667</v>
-      </c>
-      <c r="F61" t="s">
-        <v>863</v>
+        <v>609</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>912</v>
       </c>
       <c r="G61" t="s">
         <v>290</v>
       </c>
       <c r="H61" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -6413,25 +6526,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="C62" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>668</v>
-      </c>
-      <c r="F62" t="s">
-        <v>864</v>
+        <v>610</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>913</v>
       </c>
       <c r="G62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H62" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -6439,25 +6552,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>588</v>
       </c>
       <c r="C63" t="s">
-        <v>382</v>
+        <v>589</v>
       </c>
       <c r="D63" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>669</v>
-      </c>
-      <c r="F63" t="s">
-        <v>865</v>
+        <v>611</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>920</v>
       </c>
       <c r="G63" t="s">
         <v>290</v>
       </c>
       <c r="H63" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -6465,25 +6578,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>590</v>
       </c>
       <c r="C64" t="s">
-        <v>383</v>
+        <v>591</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>644</v>
-      </c>
-      <c r="F64" t="s">
-        <v>840</v>
+        <v>612</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>921</v>
       </c>
       <c r="G64" t="s">
         <v>290</v>
       </c>
       <c r="H64" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6491,25 +6604,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>592</v>
       </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>593</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>670</v>
-      </c>
-      <c r="F65" t="s">
-        <v>866</v>
+        <v>867</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>914</v>
       </c>
       <c r="G65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H65" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6517,25 +6630,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>385</v>
+        <v>595</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
-      </c>
-      <c r="E66" t="s">
-        <v>671</v>
-      </c>
-      <c r="F66" t="s">
-        <v>867</v>
+        <v>231</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>915</v>
       </c>
       <c r="G66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H66" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6543,25 +6656,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>596</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>597</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
-      </c>
-      <c r="E67" t="s">
-        <v>672</v>
-      </c>
-      <c r="F67" t="s">
-        <v>868</v>
+        <v>236</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>916</v>
       </c>
       <c r="G67" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H67" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6569,25 +6682,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>598</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>599</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="E68" t="s">
-        <v>647</v>
-      </c>
-      <c r="F68" t="s">
-        <v>843</v>
+        <v>613</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>919</v>
       </c>
       <c r="G68" t="s">
         <v>290</v>
       </c>
       <c r="H68" t="s">
-        <v>407</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6595,25 +6708,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>601</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" t="s">
-        <v>643</v>
-      </c>
-      <c r="F69" t="s">
-        <v>839</v>
+        <v>265</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>922</v>
       </c>
       <c r="G69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H69" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6621,25 +6734,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
-      </c>
-      <c r="E70" t="s">
-        <v>673</v>
-      </c>
-      <c r="F70" t="s">
-        <v>869</v>
+        <v>366</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>773</v>
       </c>
       <c r="G70" t="s">
         <v>290</v>
       </c>
       <c r="H70" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6647,25 +6760,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
-      </c>
-      <c r="E71" t="s">
-        <v>650</v>
-      </c>
-      <c r="F71" t="s">
-        <v>846</v>
+        <v>143</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>772</v>
       </c>
       <c r="G71" t="s">
         <v>290</v>
       </c>
       <c r="H71" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6673,25 +6786,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" t="s">
-        <v>648</v>
-      </c>
-      <c r="F72" t="s">
-        <v>844</v>
+        <v>367</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>769</v>
       </c>
       <c r="G72" t="s">
         <v>290</v>
       </c>
       <c r="H72" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6699,25 +6812,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" t="s">
-        <v>642</v>
-      </c>
-      <c r="F73" t="s">
-        <v>838</v>
+        <v>368</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>771</v>
       </c>
       <c r="G73" t="s">
         <v>290</v>
       </c>
       <c r="H73" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6725,25 +6838,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
-      </c>
-      <c r="E74" t="s">
-        <v>674</v>
-      </c>
-      <c r="F74" t="s">
-        <v>870</v>
+        <v>369</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>770</v>
       </c>
       <c r="G74" t="s">
         <v>290</v>
       </c>
       <c r="H74" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -6751,25 +6864,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D75" t="s">
-        <v>377</v>
-      </c>
-      <c r="E75" t="s">
-        <v>675</v>
-      </c>
-      <c r="F75" t="s">
-        <v>871</v>
+        <v>158</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>768</v>
       </c>
       <c r="G75" t="s">
         <v>290</v>
       </c>
       <c r="H75" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -6777,25 +6890,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" t="s">
-        <v>646</v>
-      </c>
-      <c r="F76" t="s">
-        <v>842</v>
+        <v>138</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>767</v>
       </c>
       <c r="G76" t="s">
         <v>290</v>
       </c>
       <c r="H76" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -6803,25 +6916,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C77" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
-      </c>
-      <c r="E77" t="s">
-        <v>676</v>
-      </c>
-      <c r="F77" t="s">
-        <v>872</v>
+        <v>370</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>765</v>
       </c>
       <c r="G77" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H77" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6829,25 +6942,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D78" t="s">
-        <v>379</v>
-      </c>
-      <c r="E78" t="s">
-        <v>677</v>
-      </c>
-      <c r="F78" t="s">
-        <v>873</v>
+        <v>173</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>764</v>
       </c>
       <c r="G78" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H78" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6855,25 +6968,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D79" t="s">
-        <v>380</v>
-      </c>
-      <c r="E79" t="s">
-        <v>678</v>
-      </c>
-      <c r="F79" t="s">
-        <v>874</v>
+        <v>163</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>763</v>
       </c>
       <c r="G79" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H79" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6881,25 +6994,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>608</v>
-      </c>
-      <c r="F80" t="s">
-        <v>805</v>
+        <v>134</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>762</v>
       </c>
       <c r="G80" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H80" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6907,25 +7020,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C81" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
-        <v>609</v>
-      </c>
-      <c r="F81" t="s">
-        <v>806</v>
+        <v>371</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>766</v>
       </c>
       <c r="G81" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H81" t="s">
-        <v>294</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6933,25 +7046,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C82" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
-        <v>679</v>
-      </c>
-      <c r="F82" t="s">
-        <v>875</v>
+        <v>372</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>761</v>
       </c>
       <c r="G82" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H82" t="s">
-        <v>294</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6959,25 +7072,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C83" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
-      </c>
-      <c r="E83" t="s">
-        <v>680</v>
-      </c>
-      <c r="F83" t="s">
-        <v>876</v>
+        <v>153</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>760</v>
       </c>
       <c r="G83" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H83" t="s">
-        <v>414</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6985,25 +7098,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="D84" t="s">
-        <v>459</v>
-      </c>
-      <c r="E84" t="s">
-        <v>681</v>
-      </c>
-      <c r="F84" t="s">
-        <v>877</v>
+        <v>373</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>782</v>
       </c>
       <c r="G84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H84" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -7011,25 +7124,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="D85" t="s">
-        <v>460</v>
-      </c>
-      <c r="E85" t="s">
-        <v>682</v>
-      </c>
-      <c r="F85" t="s">
-        <v>878</v>
+        <v>374</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>780</v>
       </c>
       <c r="G85" t="s">
         <v>282</v>
       </c>
       <c r="H85" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -7037,25 +7150,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" t="s">
-        <v>613</v>
-      </c>
-      <c r="F86" t="s">
-        <v>810</v>
+        <v>375</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>779</v>
       </c>
       <c r="G86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H86" t="s">
-        <v>297</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -7063,25 +7176,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="D87" t="s">
-        <v>461</v>
-      </c>
-      <c r="E87" t="s">
-        <v>683</v>
-      </c>
-      <c r="F87" t="s">
-        <v>879</v>
+        <v>8</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>783</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H87" t="s">
-        <v>482</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -7089,25 +7202,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="D88" t="s">
-        <v>462</v>
-      </c>
-      <c r="E88" t="s">
-        <v>684</v>
-      </c>
-      <c r="F88" t="s">
-        <v>880</v>
+        <v>13</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>781</v>
       </c>
       <c r="G88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H88" t="s">
-        <v>483</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -7115,25 +7228,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="C89" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="D89" t="s">
-        <v>463</v>
-      </c>
-      <c r="E89" t="s">
-        <v>685</v>
-      </c>
-      <c r="F89" t="s">
-        <v>881</v>
+        <v>13</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>774</v>
       </c>
       <c r="G89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H89" t="s">
-        <v>484</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -7141,25 +7254,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="C90" t="s">
-        <v>443</v>
+        <v>776</v>
       </c>
       <c r="D90" t="s">
-        <v>464</v>
-      </c>
-      <c r="E90" t="s">
-        <v>686</v>
-      </c>
-      <c r="F90" t="s">
-        <v>882</v>
-      </c>
-      <c r="G90" t="s">
-        <v>282</v>
-      </c>
-      <c r="H90" t="s">
-        <v>485</v>
+        <v>776</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -7167,25 +7274,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>422</v>
+        <v>775</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>465</v>
-      </c>
-      <c r="E91" t="s">
-        <v>687</v>
-      </c>
-      <c r="F91" t="s">
-        <v>883</v>
+        <v>376</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>778</v>
       </c>
       <c r="G91" t="s">
         <v>282</v>
       </c>
       <c r="H91" t="s">
-        <v>486</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -7193,25 +7300,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D92" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E92" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="F92" t="s">
-        <v>884</v>
+        <v>739</v>
       </c>
       <c r="G92" t="s">
         <v>282</v>
       </c>
       <c r="H92" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -7219,25 +7326,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D93" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E93" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="F93" t="s">
-        <v>885</v>
+        <v>740</v>
       </c>
       <c r="G93" t="s">
         <v>282</v>
       </c>
       <c r="H93" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7245,25 +7352,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C94" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D94" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="F94" t="s">
-        <v>886</v>
+        <v>738</v>
       </c>
       <c r="G94" t="s">
         <v>282</v>
       </c>
       <c r="H94" t="s">
-        <v>489</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -7271,25 +7378,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D95" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E95" t="s">
-        <v>691</v>
+        <v>616</v>
       </c>
       <c r="F95" t="s">
-        <v>887</v>
+        <v>741</v>
       </c>
       <c r="G95" t="s">
         <v>282</v>
       </c>
       <c r="H95" t="s">
-        <v>298</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,25 +7404,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D96" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E96" t="s">
-        <v>692</v>
+        <v>617</v>
       </c>
       <c r="F96" t="s">
-        <v>888</v>
+        <v>742</v>
       </c>
       <c r="G96" t="s">
         <v>282</v>
       </c>
       <c r="H96" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -7323,25 +7430,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D97" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E97" t="s">
-        <v>693</v>
+        <v>618</v>
       </c>
       <c r="F97" t="s">
-        <v>889</v>
+        <v>743</v>
       </c>
       <c r="G97" t="s">
         <v>282</v>
       </c>
       <c r="H97" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -7349,25 +7456,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D98" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E98" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="F98" t="s">
-        <v>890</v>
+        <v>744</v>
       </c>
       <c r="G98" t="s">
         <v>282</v>
       </c>
       <c r="H98" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -7375,25 +7482,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C99" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D99" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E99" t="s">
-        <v>695</v>
-      </c>
-      <c r="F99" t="s">
-        <v>891</v>
+        <v>620</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>757</v>
       </c>
       <c r="G99" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H99" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -7401,25 +7508,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E100" t="s">
-        <v>696</v>
+        <v>621</v>
       </c>
       <c r="F100" t="s">
-        <v>892</v>
+        <v>745</v>
       </c>
       <c r="G100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H100" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -7427,25 +7534,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C101" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D101" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E101" t="s">
-        <v>697</v>
+        <v>622</v>
       </c>
       <c r="F101" t="s">
-        <v>893</v>
+        <v>746</v>
       </c>
       <c r="G101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H101" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7453,25 +7560,25 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C102" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D102" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="E102" t="s">
-        <v>698</v>
+        <v>623</v>
       </c>
       <c r="F102" t="s">
-        <v>894</v>
+        <v>747</v>
       </c>
       <c r="G102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H102" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -7479,25 +7586,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C103" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D103" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E103" t="s">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="F103" t="s">
-        <v>895</v>
+        <v>748</v>
       </c>
       <c r="G103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H103" t="s">
-        <v>497</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -7505,25 +7612,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D104" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E104" t="s">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="F104" t="s">
-        <v>896</v>
+        <v>749</v>
       </c>
       <c r="G104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H104" t="s">
-        <v>294</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -7531,29 +7638,333 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D105" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E105" t="s">
-        <v>701</v>
+        <v>626</v>
       </c>
       <c r="F105" t="s">
-        <v>897</v>
+        <v>750</v>
       </c>
       <c r="G105" t="s">
+        <v>282</v>
+      </c>
+      <c r="H105" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C106" t="s">
+        <v>446</v>
+      </c>
+      <c r="D106" t="s">
+        <v>467</v>
+      </c>
+      <c r="E106" t="s">
+        <v>627</v>
+      </c>
+      <c r="F106" t="s">
+        <v>751</v>
+      </c>
+      <c r="G106" t="s">
+        <v>282</v>
+      </c>
+      <c r="H106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>425</v>
+      </c>
+      <c r="C107" t="s">
+        <v>447</v>
+      </c>
+      <c r="D107" t="s">
+        <v>468</v>
+      </c>
+      <c r="E107" t="s">
+        <v>628</v>
+      </c>
+      <c r="F107" t="s">
+        <v>752</v>
+      </c>
+      <c r="G107" t="s">
+        <v>285</v>
+      </c>
+      <c r="H107" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" t="s">
+        <v>448</v>
+      </c>
+      <c r="D108" t="s">
+        <v>469</v>
+      </c>
+      <c r="E108" t="s">
+        <v>629</v>
+      </c>
+      <c r="F108" t="s">
+        <v>758</v>
+      </c>
+      <c r="G108" t="s">
         <v>280</v>
       </c>
-      <c r="H105" t="s">
-        <v>498</v>
+      <c r="H108" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>427</v>
+      </c>
+      <c r="C109" t="s">
+        <v>449</v>
+      </c>
+      <c r="D109" t="s">
+        <v>470</v>
+      </c>
+      <c r="E109" t="s">
+        <v>630</v>
+      </c>
+      <c r="F109" t="s">
+        <v>753</v>
+      </c>
+      <c r="G109" t="s">
+        <v>280</v>
+      </c>
+      <c r="H109" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>428</v>
+      </c>
+      <c r="C110" t="s">
+        <v>450</v>
+      </c>
+      <c r="D110" t="s">
+        <v>471</v>
+      </c>
+      <c r="E110" t="s">
+        <v>631</v>
+      </c>
+      <c r="F110" t="s">
+        <v>754</v>
+      </c>
+      <c r="G110" t="s">
+        <v>280</v>
+      </c>
+      <c r="H110" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>429</v>
+      </c>
+      <c r="C111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D111" t="s">
+        <v>472</v>
+      </c>
+      <c r="E111" t="s">
+        <v>632</v>
+      </c>
+      <c r="F111" t="s">
+        <v>756</v>
+      </c>
+      <c r="G111" t="s">
+        <v>280</v>
+      </c>
+      <c r="H111" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" t="s">
+        <v>473</v>
+      </c>
+      <c r="E112" t="s">
+        <v>633</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="G112" t="s">
+        <v>280</v>
+      </c>
+      <c r="H112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>431</v>
+      </c>
+      <c r="C113" t="s">
+        <v>453</v>
+      </c>
+      <c r="D113" t="s">
+        <v>474</v>
+      </c>
+      <c r="E113" t="s">
+        <v>634</v>
+      </c>
+      <c r="F113" t="s">
+        <v>755</v>
+      </c>
+      <c r="G113" t="s">
+        <v>280</v>
+      </c>
+      <c r="H113" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F99" r:id="rId1" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=Ke6plb&amp;nav=MTVfezY4MUE0MUZDLTRCRDEtNDI5NS05MTFGLUFFRjBBQ0RDQjkwRH0" xr:uid="{410FF9DF-715F-41FB-B9DB-7E0BDB7B223B}"/>
+    <hyperlink ref="F112" r:id="rId2" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/AFTER%20HOUR%20INFO/00%20-%20Store%20Details.xlsx?d=wbf856536c68e4dee85718baeba3ea135&amp;csf=1&amp;web=1&amp;e=d3V6Qp&amp;nav=MTVfezI0RjQ1OEU2LTE0NTEtNDM1OC04QzdCLTkzQ0U3NzVEOEVCNn0" xr:uid="{C7C6DAB7-1B53-4B4A-993C-652CF5781D5B}"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ppvzI8&amp;nav=MTVfe0UyRDVGNDQzLTY5NTMtNEE4NC04QzZGLTgzOUFBNDg5ODNDNX0" xr:uid="{92096943-3EEB-4F01-B2E4-C49F237CB5A1}"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=Heoa9Y&amp;nav=MTVfezFDMUI4MzMzLTA3MUItNEMwRi04M0Q5LTNDNjYyMTY0RTY4Mn0" xr:uid="{AB04B039-5CA3-4FD3-8009-B89AF3F3CE68}"/>
+    <hyperlink ref="E15" r:id="rId5" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=NhB3Kj&amp;nav=MTVfezRCRTIzNjE3LTRGQzQtNEY2OS1CQUY1LTY2NTI2NkRENzk2NH0" xr:uid="{A93E0BB4-5D0E-4AC4-ACB4-A89E7D968AC5}"/>
+    <hyperlink ref="E19" r:id="rId6" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=8HImjm&amp;nav=MTVfezVFQzBCNDM1LTkwQjUtNDQwRi04OTQ3LTI3QjQzRjQ5MUJFN30" xr:uid="{760CDF3E-E3A0-4616-9B4E-B67AF6ADDBCD}"/>
+    <hyperlink ref="E20" r:id="rId7" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=vW8er2&amp;nav=MTVfezRGODc2RDM1LURBQUMtNEUyMC1CMTI2LTU0RDkxMjZDMzZDQ30" xr:uid="{1FE46DC4-2CF3-4A93-98DC-6E329040F6A3}"/>
+    <hyperlink ref="E21" r:id="rId8" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=vWX42m&amp;nav=MTVfezZBNkZGOEZCLTNBNzktNDA3NC1CRDgyLUM2OTcyOENGODM4NX0" xr:uid="{5BA00692-3DF7-4F91-BA2D-1D83CB58F3C4}"/>
+    <hyperlink ref="E22" r:id="rId9" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=o6zjrb&amp;nav=MTVfe0NCQ0Y5OERELUI4MzktNDlEQS04MDU4LUNFOEFCNTI2NDg4Q30" xr:uid="{014788C6-5300-4E93-B80C-1A0002DC6741}"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=Voh3RP&amp;nav=MTVfe0Q3RDUxRkJFLTEwQzItNDMxQS1COUIwLUI2MUI0QThGQkZEOH0" xr:uid="{D9AF9C35-D5BB-4308-9B31-E040C7A61A9C}"/>
+    <hyperlink ref="E24" r:id="rId11" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=LAP2Xz&amp;nav=MTVfe0FBMzRBN0IxLUE3QzItNERGNy1BRTMzLTBDMjNDQkZGQjg1MH0" xr:uid="{BE4BD467-04E6-4616-B8B5-08E8EC4E8CF8}"/>
+    <hyperlink ref="E25" r:id="rId12" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=rkchVL&amp;nav=MTVfezlFMjBBNEJDLTdCMDMtNERCRi04RjczLTU3OEQ2QjUxNDRBOH0" xr:uid="{3AD35ACD-3D17-4CF2-9EA8-7602D988D3AB}"/>
+    <hyperlink ref="E26" r:id="rId13" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=qAfMcO&amp;nav=MTVfe0RGRDYxQTNBLTE5QjgtNDE5My05MTAzLTEzNjhCQzNGQUI0OX0" xr:uid="{560DDD7D-A141-482A-A818-F905A0F31376}"/>
+    <hyperlink ref="E27" r:id="rId14" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=4K7Evv&amp;nav=MTVfe0IyQTUwMjVELUNENzctNEVCQy05QzVDLUJFOTA0NjlFRTEzNX0" xr:uid="{3026392D-2CB7-41B7-97CE-9BD1C273AA4A}"/>
+    <hyperlink ref="E28" r:id="rId15" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=YHXSbw&amp;nav=MTVfe0Y3QkRBNUE1LUMxOUQtNEZGQi04RUYwLURGQkVBRTkzRDBGMX0" xr:uid="{99EB0F66-A352-47F2-B82E-CE4923F15618}"/>
+    <hyperlink ref="E29" r:id="rId16" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=t4VCjg&amp;nav=MTVfezU0OUZGRjNELTVCMDMtNDAzNS04NzYzLUY2RjNFNzU1OUVGMn0" xr:uid="{E5CA4FAB-8B89-4BB0-8239-C4A50D68B960}"/>
+    <hyperlink ref="E30" r:id="rId17" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=oqEvZg&amp;nav=MTVfezI3RDQxNzBGLTNEMjktNDc4OS05QUVDLTM5MzJBNjg5MEM2RH0" xr:uid="{E960FF00-79C0-4F19-BBC3-BBE15001420C}"/>
+    <hyperlink ref="E31" r:id="rId18" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=yosc37&amp;nav=MTVfezUzMEZBMENCLUI1NTQtNDI2MS1BRTkzLUY1MEMxRTFBMTJGN30" xr:uid="{B348A5EF-30CA-480D-8348-F234C572FD0C}"/>
+    <hyperlink ref="E32" r:id="rId19" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=Dv7AQK&amp;nav=MTVfezhCRTJEMjJBLURFMkYtNDEwRi04MEQwLUI3NkEyMUFCOTI0Qn0" xr:uid="{64D004DE-B1DC-4764-8D62-E8687F858BA3}"/>
+    <hyperlink ref="E34" r:id="rId20" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=cGcfcJ&amp;nav=MTVfe0IxMkE5RThDLUFDNTQtNEI1NC1CNTgyLTMxQUJBQTFEMURBMX0" xr:uid="{611276B6-D631-43F3-9400-446BB18F437D}"/>
+    <hyperlink ref="E18" r:id="rId21" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=W1Gsih&amp;nav=MTVfezU5NkM3MTMzLTI0QjYtNEEyOC1CRjA4LUE1OUE0REJDMDFEOX0" xr:uid="{FB74EA65-8D03-4DF3-B1F5-EABED73656FC}"/>
+    <hyperlink ref="E35" r:id="rId22" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=pPgwjS&amp;nav=MTVfezE3NjRENjkwLTI3QTYtNDRFNC1BRkIwLUVFMjM5NzY1NTlGOX0" xr:uid="{71CA22F8-DA08-4D0A-8DD4-A2FC26C88E89}"/>
+    <hyperlink ref="E36" r:id="rId23" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=pPgwjS&amp;nav=MTVfezE3NjRENjkwLTI3QTYtNDRFNC1BRkIwLUVFMjM5NzY1NTlGOX0" xr:uid="{68E82A40-6BFB-4337-9517-B342EF1A485D}"/>
+    <hyperlink ref="E37" r:id="rId24" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ODQFKq&amp;nav=MTVfe0JEMzk1MEE3LTBCQzAtNDAwQy04NEU0LUJFRkYxMEMyMTU3NH0" xr:uid="{4F07DD80-F77F-4928-B619-E2EE09FA5A5D}"/>
+    <hyperlink ref="E38" r:id="rId25" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=jXgzhA&amp;nav=MTVfezI5MzQ1RkI1LUNDQzUtNDIwOC1CRjVFLTVBRDVEQTA0OTI4Qn0" xr:uid="{40EE083A-E1DB-458D-9561-41FC73FD81B7}"/>
+    <hyperlink ref="E39" r:id="rId26" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=hKHpnJ&amp;nav=MTVfe0FCMTdFQzk3LTEwMEMtNEQ3MC1CMEYyLTBFRDcwM0QzRUI4NX0" xr:uid="{BDC74FCF-2485-4730-8D5C-9D68039E37E2}"/>
+    <hyperlink ref="E42" r:id="rId27" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=chAqXK&amp;nav=MTVfezc4MEE0OTY2LTBBRTQtNDNFRC04REYzLTZCNEM0NEEyQjU3Q30" xr:uid="{0991EC6C-D6A8-41EF-A5D8-587BCA493178}"/>
+    <hyperlink ref="E43" r:id="rId28" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=5cgibd&amp;nav=MTVfezlGNkUxQkNBLThGMDktNEU4RS1BQUI4LUYxMDRDNDhGQ0U0OX0" xr:uid="{C431BB3B-7BE1-4C7D-B082-5150D5FC77E3}"/>
+    <hyperlink ref="E44" r:id="rId29" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=f1lCMW&amp;nav=MTVfe0U4NEFBOTg5LUY0QTUtNDU3RC05RjY2LTAwNzFBRTZDREI2RH0" xr:uid="{4CE7CC05-6FF3-4FD1-8D0D-F4999464DBB4}"/>
+    <hyperlink ref="E45" r:id="rId30" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=32uJn2&amp;nav=MTVfezA1OUY5QzRDLTQ2RDEtNDM1NC1CNzhFLUE5N0RFNjFFOTJFOH0" xr:uid="{F391E0FA-F95C-45E2-8A96-CB1035BAB275}"/>
+    <hyperlink ref="E46" r:id="rId31" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=CI34Vd&amp;nav=MTVfe0Q0RkM3QTJGLTc2RTItNDg1Qy1COUVGLUI4Qjk4NDU5QUE2OH0" xr:uid="{B923BCD4-EA45-414F-B29E-BA2B99CED5D2}"/>
+    <hyperlink ref="E48" r:id="rId32" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=RARrGD&amp;nav=MTVfezlCNDE5NzBCLTk5MkMtNDY2MS1CQTEwLTZEMkE1RTUxMzI1MX0" xr:uid="{BBA69F61-5F2A-431A-AD35-1DD260CEC3D5}"/>
+    <hyperlink ref="E49" r:id="rId33" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ycZ8BX&amp;nav=MTVfezAwOTU5NTZFLTc1NjAtNEU5Mi05MUNFLTU2N0JDMkUxQ0Y3Qn0" xr:uid="{4731EC21-DAFB-49B5-84BD-97A5BC1692E9}"/>
+    <hyperlink ref="E50" r:id="rId34" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=4tNvaY&amp;nav=MTVfezY0QjA4MUJDLTZERTAtNDdFNC1BRTkzLUVCQ0I3NTBERjZDRn0" xr:uid="{9D62F4B4-3AD0-4E03-8453-2E173F495480}"/>
+    <hyperlink ref="E51" r:id="rId35" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=qJ2Avo&amp;nav=MTVfe0NBQzc4NDIyLUNBQ0QtNDZGNy05QTY4LTZDMUNCNDBGQjU1OX0" xr:uid="{F9F48BA4-5B38-47E6-BC93-1ACE7ABF57BB}"/>
+    <hyperlink ref="E53" r:id="rId36" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=BhHUr7&amp;nav=MTVfezFBREJBQjU5LUMzRDUtNDE2OC1BMDM1LTJFN0YxODJDMzU4MX0" xr:uid="{6B532535-52F0-45F9-A19F-A982DB5219AB}"/>
+    <hyperlink ref="E54" r:id="rId37" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ss94VZ&amp;nav=MTVfe0Q5N0FEMUI2LURERjUtNEM4Qy1BMzU0LThCQzAyMjIxRjk2OH0" xr:uid="{105F0F5C-07C8-4276-906F-31EB5850DF31}"/>
+    <hyperlink ref="E55" r:id="rId38" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=TwMnjU&amp;nav=MTVfe0FEMDVDQ0EzLUFEREYtNDdEMS1BQUMxLTM3QzAxOEFBNzI0Q30" xr:uid="{0ECBDD6F-431F-4A34-A735-5C99EB8DB92A}"/>
+    <hyperlink ref="E66" r:id="rId39" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=nqVRbh&amp;nav=MTVfe0ZEODM3MTczLUZEMTItNEUzMi1CRkQ5LUUxOUZENENBOEVBNX0" xr:uid="{9C2EFDB0-3149-44A0-8CAA-208750750959}"/>
+    <hyperlink ref="E67" r:id="rId40" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=ih0iCI&amp;nav=MTVfezI0NUE5OTg0LUQyMDMtNDZBRi04NkRELTQ2QjgwNEQxNkNEMn0" xr:uid="{530EE966-A6AF-48A8-95AF-33355BA17613}"/>
+    <hyperlink ref="E69" r:id="rId41" display="https://brandtgroupca.sharepoint.com/:x:/r/sites/PublicBRANDT/SupportCenter/Support%20Center/CONSTRUCTION%20%26%20FORESTRY/BRANCH%20RELATED/BRANCH%20DETAILS%202023%20(ALL).xlsx?d=wf62958bbd5de47df97db4e292f7bb6fa&amp;csf=1&amp;web=1&amp;e=3dbJiG&amp;nav=MTVfe0RGOTMwMUJELUQ0MzktNDU1NC05MEIwLUVGRDc5MjUyOTVDNH0" xr:uid="{BCDF576F-624D-41AE-AE4C-80524847077D}"/>
+    <hyperlink ref="F17" r:id="rId42" xr:uid="{783AE77F-56A4-4585-BA43-F9EE6E6DD593}"/>
+    <hyperlink ref="F18" r:id="rId43" xr:uid="{9F448FDD-844F-4FC6-8F3C-880926F6D44F}"/>
+    <hyperlink ref="F19" r:id="rId44" xr:uid="{2F8252BF-16D0-4620-B5CF-4B53BC08D395}"/>
+    <hyperlink ref="F20" r:id="rId45" xr:uid="{E287D868-74FA-462A-804E-26E04F768B3A}"/>
+    <hyperlink ref="F21" r:id="rId46" xr:uid="{80928991-D757-4BEE-87F5-13D43D226B86}"/>
+    <hyperlink ref="F22" r:id="rId47" xr:uid="{8D3A3593-189F-4D58-B0F6-D214C3355F16}"/>
+    <hyperlink ref="F23" r:id="rId48" xr:uid="{AFF3C899-376B-4EED-ABFF-CDB3F2798D6E}"/>
+    <hyperlink ref="F24" r:id="rId49" xr:uid="{15CC7E5F-BB67-4447-AF70-0C58B8094287}"/>
+    <hyperlink ref="F25" r:id="rId50" xr:uid="{1F160432-C7DC-4F5C-9C61-A9324A1DB984}"/>
+    <hyperlink ref="F26" r:id="rId51" xr:uid="{0FBAB285-9BA6-4BD0-A73C-D695E76910B4}"/>
+    <hyperlink ref="F27" r:id="rId52" xr:uid="{E00853AF-BC02-4B3E-B60C-FCA366ADB362}"/>
+    <hyperlink ref="F28" r:id="rId53" xr:uid="{445B2C15-F4C6-4DCA-9519-0AD180E07028}"/>
+    <hyperlink ref="F29" r:id="rId54" xr:uid="{8393CF46-2D8D-46D6-91C3-09FB9FE1FCCC}"/>
+    <hyperlink ref="F30" r:id="rId55" xr:uid="{1A39EE1F-3793-4F39-90CB-4FCD94A8192A}"/>
+    <hyperlink ref="F31" r:id="rId56" xr:uid="{89F38B6D-3600-4677-A74D-5CAADB05C8CB}"/>
+    <hyperlink ref="F32" r:id="rId57" xr:uid="{9BC08931-A6E5-46F1-8B21-B354861B9CDB}"/>
+    <hyperlink ref="F34" r:id="rId58" xr:uid="{2DD1191C-F7E9-482B-9560-93BFFF4E51B6}"/>
+    <hyperlink ref="F35" r:id="rId59" xr:uid="{D6AEBFF2-52D4-4B14-B21A-92BD39ADA4C6}"/>
+    <hyperlink ref="F36" r:id="rId60" xr:uid="{6BE23D81-6DF7-44E1-A4AC-1972DE1D9931}"/>
+    <hyperlink ref="F37" r:id="rId61" xr:uid="{02EC1C36-AC02-4257-9E2E-1F6C79ACC357}"/>
+    <hyperlink ref="F40" r:id="rId62" xr:uid="{56C33D76-316C-4394-9441-EEE5CD56EA09}"/>
+    <hyperlink ref="F33" r:id="rId63" xr:uid="{9CA27860-4CCE-4FD7-8E2C-9A8EE9A5E4F9}"/>
+    <hyperlink ref="F38" r:id="rId64" xr:uid="{EC54CA13-1C0E-47A7-A1A7-94B1C981B11C}"/>
+    <hyperlink ref="F39" r:id="rId65" xr:uid="{727D7D61-5677-482E-B2C9-775EFC763D27}"/>
+    <hyperlink ref="F41" r:id="rId66" xr:uid="{FAD1CDEE-6FB5-4D76-A782-D3AC7C7C4DD2}"/>
+    <hyperlink ref="F42" r:id="rId67" xr:uid="{EA6839F1-0FE3-43BC-8C93-62F2532A77E5}"/>
+    <hyperlink ref="F43" r:id="rId68" xr:uid="{A2CEEAA8-F9B7-4E1D-B80A-32288A9D80CD}"/>
+    <hyperlink ref="F44" r:id="rId69" xr:uid="{710A10C9-FFD6-4326-8BED-AEA1BDBACCE4}"/>
+    <hyperlink ref="F45" r:id="rId70" xr:uid="{67C63A0A-B3A1-4AC1-B3D9-443CB9A07CF0}"/>
+    <hyperlink ref="F46" r:id="rId71" xr:uid="{B60289D8-B3AC-4917-812B-6A399424DB17}"/>
+    <hyperlink ref="F47" r:id="rId72" xr:uid="{EAE69949-0DBF-480D-9D22-919DA10ECB6B}"/>
+    <hyperlink ref="F48" r:id="rId73" xr:uid="{3D218208-227F-4F0D-AAAE-629F2FEE0D14}"/>
+    <hyperlink ref="F49" r:id="rId74" xr:uid="{284A327E-BE74-4D8A-95E4-B43697FC021C}"/>
+    <hyperlink ref="F50" r:id="rId75" xr:uid="{24191C52-5096-4BF9-8400-6CBA848B7471}"/>
+    <hyperlink ref="F51" r:id="rId76" xr:uid="{92D7A2F3-3048-4D0F-A5EC-1EBC4F83D977}"/>
+    <hyperlink ref="F54" r:id="rId77" xr:uid="{B5CD4AE5-A2A6-4561-9D11-B399B50C0B2D}"/>
+    <hyperlink ref="F55" r:id="rId78" xr:uid="{2E6865F7-2FD3-4E6C-8948-08394E3B1BDE}"/>
+    <hyperlink ref="F56" r:id="rId79" xr:uid="{193AA5A9-6BA0-46EA-B270-83FD25B0FFC2}"/>
+    <hyperlink ref="F57" r:id="rId80" xr:uid="{B8FC4336-38D6-4E95-AC5F-B0CDC3F56241}"/>
+    <hyperlink ref="F58" r:id="rId81" xr:uid="{A3A6A6E3-CE19-4405-8677-34E3A8B78E43}"/>
+    <hyperlink ref="F59" r:id="rId82" xr:uid="{95CF1FD4-16BC-4D8C-AD21-14E72D5CD315}"/>
+    <hyperlink ref="F60" r:id="rId83" xr:uid="{4C285762-A3D5-493D-9A09-BF2138F618DD}"/>
+    <hyperlink ref="F61" r:id="rId84" xr:uid="{AC7CDEDF-9A16-46CD-B1A7-B61244442019}"/>
+    <hyperlink ref="F62" r:id="rId85" xr:uid="{26A8D2FC-81FB-4243-85B1-46E50269C749}"/>
+    <hyperlink ref="F65" r:id="rId86" xr:uid="{263EE972-32B9-4686-87C4-07612D17A08F}"/>
+    <hyperlink ref="F66" r:id="rId87" xr:uid="{942561CE-C7BC-48A3-8CFB-5951ECBAA477}"/>
+    <hyperlink ref="F67" r:id="rId88" xr:uid="{7C553548-484D-495E-906C-45EA335B38A2}"/>
+    <hyperlink ref="F52" r:id="rId89" xr:uid="{A5144F2F-482E-4480-B8AB-CAFD8B735055}"/>
+    <hyperlink ref="F53" r:id="rId90" xr:uid="{593C72D0-140D-450C-BDB3-52ED6925C746}"/>
+    <hyperlink ref="F68" r:id="rId91" xr:uid="{868F9803-454F-47E0-B4AE-AE09F8018319}"/>
+    <hyperlink ref="F63" r:id="rId92" xr:uid="{74CC0459-5749-4FCD-B143-04225601D101}"/>
+    <hyperlink ref="F64" r:id="rId93" xr:uid="{FA30F521-59AF-4C9B-9C7B-8BBB699EF2B0}"/>
+    <hyperlink ref="F69" r:id="rId94" xr:uid="{5F90B968-7193-458C-BF7E-AA3C28B76E3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7575,22 +7986,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="C1" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
       <c r="D1" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
       <c r="E1" t="s">
-        <v>799</v>
+        <v>732</v>
       </c>
       <c r="F1" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7598,19 +8009,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F2" t="s">
-        <v>702</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7618,19 +8029,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F3" t="s">
-        <v>703</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7638,19 +8049,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F4" t="s">
-        <v>704</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7658,19 +8069,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F5" t="s">
-        <v>705</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7678,19 +8089,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F6" t="s">
-        <v>706</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7698,19 +8109,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F7" t="s">
-        <v>707</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7718,19 +8129,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E8" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F8" t="s">
-        <v>708</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7738,19 +8149,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F9" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7758,19 +8169,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E10" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7778,19 +8189,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F11" t="s">
-        <v>711</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7798,19 +8209,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F12" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7818,19 +8229,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D13" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E13" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F13" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7838,19 +8249,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7858,19 +8269,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E15" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F15" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7878,19 +8289,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C16" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D16" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E16" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F16" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7898,19 +8309,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C17" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D17" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E17" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F17" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,19 +8329,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D18" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E18" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F18" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7938,19 +8349,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C19" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D19" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E19" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F19" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,19 +8369,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D20" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E20" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7978,19 +8389,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D21" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E21" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F21" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7998,19 +8409,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D22" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F22" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8018,19 +8429,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C23" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E23" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F23" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8038,19 +8449,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D24" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E24" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F24" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8058,19 +8469,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C25" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D25" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E25" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F25" t="s">
-        <v>725</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8078,19 +8489,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D26" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E26" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F26" t="s">
-        <v>726</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8098,19 +8509,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C27" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D27" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E27" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F27" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8118,19 +8529,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C28" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D28" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E28" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8138,19 +8549,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C29" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D29" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E29" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,19 +8569,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C30" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D30" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E30" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F30" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8178,19 +8589,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C31" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D31" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E31" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F31" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8198,19 +8609,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D32" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E32" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F32" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8218,19 +8629,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C33" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D33" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E33" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F33" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8238,19 +8649,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C34" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D34" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E34" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F34" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8258,19 +8669,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C35" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D35" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E35" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8278,19 +8689,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F36" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8298,19 +8709,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D37" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E37" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F37" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8318,19 +8729,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E38" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F38" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8338,19 +8749,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C39" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D39" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E39" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F39" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8358,19 +8769,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D40" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E40" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F40" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8378,19 +8789,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C41" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E41" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F41" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8398,19 +8809,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D42" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E42" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F42" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8418,19 +8829,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C43" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D43" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E43" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F43" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8438,19 +8849,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D44" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E44" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F44" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8458,19 +8869,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C45" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D45" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E45" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F45" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8478,19 +8889,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C46" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D46" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E46" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F46" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8498,19 +8909,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C47" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F47" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8518,19 +8929,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C48" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D48" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E48" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F48" t="s">
-        <v>747</v>
+        <v>680</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8538,19 +8949,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C49" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D49" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E49" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F49" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8558,19 +8969,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C50" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D50" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E50" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F50" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8578,19 +8989,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C51" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D51" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E51" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F51" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8598,19 +9009,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C52" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D52" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E52" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F52" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8618,19 +9029,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C53" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D53" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E53" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F53" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8638,19 +9049,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D54" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E54" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F54" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8658,19 +9069,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C55" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D55" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E55" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F55" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8678,19 +9089,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C56" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D56" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E56" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F56" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -8698,19 +9109,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C57" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D57" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E57" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F57" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8718,19 +9129,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C58" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D58" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E58" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F58" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8738,19 +9149,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C59" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D59" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E59" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F59" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8758,19 +9169,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C60" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D60" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E60" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F60" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8778,19 +9189,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C61" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D61" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E61" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F61" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8798,19 +9209,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C62" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D62" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E62" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F62" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8818,19 +9229,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C63" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D63" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E63" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F63" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8838,19 +9249,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C64" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E64" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F64" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8858,19 +9269,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D65" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E65" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F65" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -8878,19 +9289,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C66" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D66" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E66" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F66" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -8898,19 +9309,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D67" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E67" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F67" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -8918,19 +9329,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D68" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E68" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F68" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -8938,19 +9349,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D69" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E69" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F69" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -8958,19 +9369,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D70" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E70" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F70" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -8978,19 +9389,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D71" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E71" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F71" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -8998,19 +9409,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D72" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E72" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F72" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9018,19 +9429,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D73" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E73" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F73" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9038,19 +9449,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D74" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E74" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F74" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9058,19 +9469,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D75" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E75" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F75" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9078,19 +9489,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D76" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E76" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F76" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9098,19 +9509,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D77" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E77" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F77" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9118,19 +9529,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D78" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E78" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F78" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9138,19 +9549,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D79" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E79" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F79" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -9158,19 +9569,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D80" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E80" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F80" t="s">
-        <v>702</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -9178,19 +9589,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C81" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D81" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E81" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F81" t="s">
-        <v>703</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -9198,19 +9609,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D82" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E82" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F82" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -9218,19 +9629,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C83" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D83" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E83" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F83" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9238,19 +9649,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E84" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F84" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9258,19 +9669,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D85" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E85" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F85" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9278,19 +9689,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E86" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F86" t="s">
-        <v>707</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9298,19 +9709,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D87" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E87" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F87" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9318,19 +9729,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C88" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D88" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E88" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F88" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9338,19 +9749,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D89" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E89" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F89" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -9358,19 +9769,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D90" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E90" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F90" t="s">
-        <v>779</v>
+        <v>712</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -9378,19 +9789,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D91" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E91" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F91" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -9398,19 +9809,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D92" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E92" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F92" t="s">
-        <v>781</v>
+        <v>714</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -9418,19 +9829,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D93" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E93" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F93" t="s">
-        <v>782</v>
+        <v>715</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9438,19 +9849,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C94" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D94" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E94" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F94" t="s">
-        <v>783</v>
+        <v>716</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9458,19 +9869,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D95" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E95" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F95" t="s">
-        <v>784</v>
+        <v>717</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -9478,19 +9889,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D96" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E96" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F96" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9498,19 +9909,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D97" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E97" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F97" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9518,19 +9929,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D98" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E98" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F98" t="s">
-        <v>787</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9538,19 +9949,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D99" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E99" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F99" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -9558,19 +9969,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D100" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E100" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F100" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -9578,19 +9989,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C101" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D101" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E101" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F101" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9598,19 +10009,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C102" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D102" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E102" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F102" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -9618,19 +10029,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C103" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D103" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E103" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F103" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -9638,19 +10049,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D104" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E104" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F104" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -9658,19 +10069,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C105" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D105" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E105" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F105" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/BACKEND/db/db/utils/BRANCHES AND LOCATION.xlsx
+++ b/BACKEND/db/db/utils/BRANCHES AND LOCATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding projects\maps-app\BACKEND\db\db\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471DFD29-F6DD-4618-B6CB-AB37585B2D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E65BCE-F5CB-4D49-90E1-D7201C77D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18735" windowHeight="8385" activeTab="1" xr2:uid="{192655A3-8E6D-440B-BFCA-A5C5173BF4BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{192655A3-8E6D-440B-BFCA-A5C5173BF4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="935">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -3140,23 +3140,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3529,7 +3529,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
@@ -3550,12 +3550,12 @@
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="28" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -3574,10 +3574,10 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3">
@@ -3598,12 +3598,12 @@
       <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="28" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -3620,10 +3620,10 @@
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="3">
@@ -3644,12 +3644,12 @@
       <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="28" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
@@ -3668,10 +3668,10 @@
       <c r="G7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -3690,10 +3690,10 @@
       <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -3708,10 +3708,10 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -3730,10 +3730,10 @@
       <c r="G10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -3752,10 +3752,10 @@
       <c r="G11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3">
         <v>8</v>
       </c>
@@ -3774,10 +3774,10 @@
       <c r="G12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="3">
@@ -3798,12 +3798,12 @@
       <c r="G13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="28" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -3822,10 +3822,10 @@
       <c r="G14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3">
         <v>11</v>
       </c>
@@ -3844,10 +3844,10 @@
       <c r="G15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3">
         <v>12</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="G16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3">
         <v>13</v>
       </c>
@@ -3888,10 +3888,10 @@
       <c r="G17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -3910,10 +3910,10 @@
       <c r="G18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3">
         <v>15</v>
       </c>
@@ -3932,10 +3932,10 @@
       <c r="G19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3">
         <v>16</v>
       </c>
@@ -3954,10 +3954,10 @@
       <c r="G20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>17</v>
       </c>
@@ -3976,10 +3976,10 @@
       <c r="G21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="3">
         <v>18</v>
       </c>
@@ -3998,10 +3998,10 @@
       <c r="G22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="3">
         <v>19</v>
       </c>
@@ -4020,10 +4020,10 @@
       <c r="G23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3">
         <v>20</v>
       </c>
@@ -4042,10 +4042,10 @@
       <c r="G24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -4064,10 +4064,10 @@
       <c r="G25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="10">
@@ -4082,12 +4082,12 @@
       <c r="G26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="28" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="3">
         <v>39</v>
       </c>
@@ -4106,10 +4106,10 @@
       <c r="G27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="3">
         <v>40</v>
       </c>
@@ -4128,10 +4128,10 @@
       <c r="G28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -4150,10 +4150,10 @@
       <c r="G29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="3">
         <v>41</v>
       </c>
@@ -4172,10 +4172,10 @@
       <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>42</v>
       </c>
@@ -4194,10 +4194,10 @@
       <c r="G31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="3">
         <v>43</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="G32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="26"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
@@ -4240,7 +4240,7 @@
       <c r="G33" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
@@ -4262,7 +4262,7 @@
       <c r="G34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="28" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       <c r="G35" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="26"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
@@ -4308,7 +4308,7 @@
       <c r="G36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="26"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
@@ -4330,7 +4330,7 @@
       <c r="G37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
@@ -4352,7 +4352,7 @@
       <c r="G38" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H38" s="26"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
@@ -4374,7 +4374,7 @@
       <c r="G39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="26"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
@@ -4396,7 +4396,7 @@
       <c r="G40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="26"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
@@ -4418,7 +4418,7 @@
       <c r="G41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H41" s="26"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
@@ -4440,7 +4440,7 @@
       <c r="G42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H42" s="26"/>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
@@ -4462,7 +4462,7 @@
       <c r="G43" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
@@ -4484,7 +4484,7 @@
       <c r="G44" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="26"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
@@ -4506,7 +4506,7 @@
       <c r="G45" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="26"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
@@ -4528,10 +4528,10 @@
       <c r="G46" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H46" s="27"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="25" t="s">
         <v>225</v>
       </c>
       <c r="B47" s="3">
@@ -4552,12 +4552,12 @@
       <c r="G47" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="28" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="3">
         <v>62</v>
       </c>
@@ -4576,10 +4576,10 @@
       <c r="G48" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="26"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="3">
         <v>63</v>
       </c>
@@ -4598,10 +4598,10 @@
       <c r="G49" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H49" s="26"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="3">
         <v>64</v>
       </c>
@@ -4620,10 +4620,10 @@
       <c r="G50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H50" s="26"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>65</v>
       </c>
@@ -4642,10 +4642,10 @@
       <c r="G51" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="26"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="3">
         <v>66</v>
       </c>
@@ -4664,10 +4664,10 @@
       <c r="G52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H52" s="26"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="3">
         <v>67</v>
       </c>
@@ -4686,10 +4686,10 @@
       <c r="G53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H53" s="26"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="3">
         <v>68</v>
       </c>
@@ -4708,10 +4708,10 @@
       <c r="G54" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H54" s="26"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="3">
         <v>69</v>
       </c>
@@ -4730,10 +4730,10 @@
       <c r="G55" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H55" s="26"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="3">
         <v>76</v>
       </c>
@@ -4752,10 +4752,10 @@
       <c r="G56" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H56" s="26"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="3">
         <v>77</v>
       </c>
@@ -4774,10 +4774,10 @@
       <c r="G57" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H57" s="27"/>
+      <c r="H57" s="29"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="25" t="s">
         <v>270</v>
       </c>
       <c r="B58" s="3">
@@ -4798,12 +4798,12 @@
       <c r="G58" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="28" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>71</v>
       </c>
@@ -4822,10 +4822,10 @@
       <c r="G59" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H59" s="26"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>72</v>
       </c>
@@ -4844,10 +4844,10 @@
       <c r="G60" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H60" s="26"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="17">
         <v>75</v>
       </c>
@@ -4866,10 +4866,10 @@
       <c r="G61" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H61" s="26"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="3">
         <v>78</v>
       </c>
@@ -4888,17 +4888,10 @@
       <c r="G62" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H62" s="27"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H13:H25"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="H26:H33"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="A26:A32"/>
@@ -4908,6 +4901,13 @@
     <mergeCell ref="H47:H57"/>
     <mergeCell ref="H34:H46"/>
     <mergeCell ref="A33:A46"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H13:H25"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -4918,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433673A2-E90D-4DAE-8497-A68936D4688C}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="C79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7267,6 +7267,9 @@
       </c>
       <c r="F90" s="23" t="s">
         <v>777</v>
+      </c>
+      <c r="G90" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
